--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4BA6E6-AF55-4176-866D-9F6861882F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F7A97-E99F-48AD-8D18-90716F001D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
     <sheet name="Kamar" sheetId="5" r:id="rId2"/>
     <sheet name="Jenis Kamar" sheetId="4" r:id="rId3"/>
+    <sheet name="Fasilitas" sheetId="11" r:id="rId4"/>
+    <sheet name="Detail Fasilitas" sheetId="12" r:id="rId5"/>
+    <sheet name="Extra Fasilitas" sheetId="13" r:id="rId6"/>
+    <sheet name="Use Extra Fasilitas" sheetId="14" r:id="rId7"/>
+    <sheet name="Makanan" sheetId="6" r:id="rId8"/>
+    <sheet name="Jenis Makanan" sheetId="7" r:id="rId9"/>
+    <sheet name="Pemesanan Makanan" sheetId="8" r:id="rId10"/>
+    <sheet name="Tamu" sheetId="9" r:id="rId11"/>
+    <sheet name="Reservasi" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="784">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -1496,6 +1505,897 @@
   </si>
   <si>
     <t>1214</t>
+  </si>
+  <si>
+    <t>id_makanan</t>
+  </si>
+  <si>
+    <t>nama_makanan</t>
+  </si>
+  <si>
+    <t>harga_makanan</t>
+  </si>
+  <si>
+    <t>stok_makanan</t>
+  </si>
+  <si>
+    <t>status_makanan</t>
+  </si>
+  <si>
+    <t>id_jenis_makanan</t>
+  </si>
+  <si>
+    <t>nama_jenis_makanan</t>
+  </si>
+  <si>
+    <t>Starters &amp; Salad</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Mineral Water</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Soft Drinks</t>
+  </si>
+  <si>
+    <t>Pasta &amp; Risotto</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Barbecues &amp; Marinations</t>
+  </si>
+  <si>
+    <t>Grilled</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Noodles</t>
+  </si>
+  <si>
+    <t>Seasonal Vegetables</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>Soups</t>
+  </si>
+  <si>
+    <t>Sandwich &amp; Burgers</t>
+  </si>
+  <si>
+    <t>Sushi &amp; Sashimi</t>
+  </si>
+  <si>
+    <t>Hot Pot</t>
+  </si>
+  <si>
+    <t>Dim Sum &amp; Bento</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Fresh Juices</t>
+  </si>
+  <si>
+    <t>Caesar Salad with Roasted Chicken Fillets</t>
+  </si>
+  <si>
+    <t>Caesar Salad with Smoked Salmon</t>
+  </si>
+  <si>
+    <t>Chef Salad</t>
+  </si>
+  <si>
+    <t>108000</t>
+  </si>
+  <si>
+    <t>208000</t>
+  </si>
+  <si>
+    <t>308000</t>
+  </si>
+  <si>
+    <t>158000</t>
+  </si>
+  <si>
+    <t>68000</t>
+  </si>
+  <si>
+    <t>Mushroom Soup</t>
+  </si>
+  <si>
+    <t>Tomato Soup</t>
+  </si>
+  <si>
+    <t>Tom Yam Goong</t>
+  </si>
+  <si>
+    <t>128000</t>
+  </si>
+  <si>
+    <t>Rawon Oxtail Soup</t>
+  </si>
+  <si>
+    <t>138000</t>
+  </si>
+  <si>
+    <t>Bromo Special Oxtail</t>
+  </si>
+  <si>
+    <t>Soto Lamongan</t>
+  </si>
+  <si>
+    <t>98000</t>
+  </si>
+  <si>
+    <t>118000</t>
+  </si>
+  <si>
+    <t>Indonesian Fried Rice with Seafood</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>Nasi Bakar Tuna</t>
+  </si>
+  <si>
+    <t>Rujak Cingur</t>
+  </si>
+  <si>
+    <t>88000</t>
+  </si>
+  <si>
+    <t>Gado Gado</t>
+  </si>
+  <si>
+    <t>78000</t>
+  </si>
+  <si>
+    <t>Iga Bakar Sapi</t>
+  </si>
+  <si>
+    <t>178000</t>
+  </si>
+  <si>
+    <t>Bebek Betutu</t>
+  </si>
+  <si>
+    <t>Chicken Taliwang</t>
+  </si>
+  <si>
+    <t>Oxtail Fried Rice</t>
+  </si>
+  <si>
+    <t>Javanese Fried Noodles</t>
+  </si>
+  <si>
+    <t>Madurese Satay (12 pcs)</t>
+  </si>
+  <si>
+    <t>Chicken Adobo (Philippines)</t>
+  </si>
+  <si>
+    <t>Japanese Curry Beef Katsu Udon</t>
+  </si>
+  <si>
+    <t>Beef Tenderloin Steak - 200 grams</t>
+  </si>
+  <si>
+    <t>388000</t>
+  </si>
+  <si>
+    <t>Rib Eye Steak - 250 grams</t>
+  </si>
+  <si>
+    <t>348000</t>
+  </si>
+  <si>
+    <t>Sirloin Steak - 250 grams</t>
+  </si>
+  <si>
+    <t>315000</t>
+  </si>
+  <si>
+    <t>Lamb Chops - 220 grams (3 pieces)</t>
+  </si>
+  <si>
+    <t>378000</t>
+  </si>
+  <si>
+    <t>Chicken Breast - 160 grams</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>Salmon Fillet - 180 grams</t>
+  </si>
+  <si>
+    <t>298000</t>
+  </si>
+  <si>
+    <t>Wagyu Burger (180 gr)</t>
+  </si>
+  <si>
+    <t>Club Sandwich</t>
+  </si>
+  <si>
+    <t>Country Tuna</t>
+  </si>
+  <si>
+    <t>Bulgogi Sandwich</t>
+  </si>
+  <si>
+    <t>Chicken Tortilla Rujak Sauce</t>
+  </si>
+  <si>
+    <t>130000</t>
+  </si>
+  <si>
+    <t>Tagliatelle Pasta with Wild Mushrooms and Pancetta</t>
+  </si>
+  <si>
+    <t>Wild Mushroom Risotto</t>
+  </si>
+  <si>
+    <t>148000</t>
+  </si>
+  <si>
+    <t>Pappardelle with Lamb Ragu</t>
+  </si>
+  <si>
+    <t>168000</t>
+  </si>
+  <si>
+    <t>Beef Lasagna Bolognese</t>
+  </si>
+  <si>
+    <t>Spaghetti Carbonara</t>
+  </si>
+  <si>
+    <t>Spaghetti Aglio E Olio</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <t>Ricotta Cheese and Mushroom Tortelloni</t>
+  </si>
+  <si>
+    <t>188000</t>
+  </si>
+  <si>
+    <t>Gnocchi with Basil Pesto</t>
+  </si>
+  <si>
+    <t>Margherita Pizza</t>
+  </si>
+  <si>
+    <t>Quattro Formaggi</t>
+  </si>
+  <si>
+    <t>Capricciosa Pizza</t>
+  </si>
+  <si>
+    <t>Diavola Pizza</t>
+  </si>
+  <si>
+    <t>Sauteed Mushrooms Pizza</t>
+  </si>
+  <si>
+    <t>Tuna Pizza</t>
+  </si>
+  <si>
+    <t>Beef Pepperoni Pizza</t>
+  </si>
+  <si>
+    <t>Smoked Beef Ham Pizza</t>
+  </si>
+  <si>
+    <t>Grilled Chicken Pizza</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>Tandoori Roti</t>
+  </si>
+  <si>
+    <t>Naan Bread with Buttered Garlic and Cheese</t>
+  </si>
+  <si>
+    <t>Rice Briyani with Lamb</t>
+  </si>
+  <si>
+    <t>Chicken Butter Masala</t>
+  </si>
+  <si>
+    <t>135000</t>
+  </si>
+  <si>
+    <t>Tandoori with Chicken and Prawns</t>
+  </si>
+  <si>
+    <t>Deep Fried Banana with Cinnamon</t>
+  </si>
+  <si>
+    <t>Tiramisu</t>
+  </si>
+  <si>
+    <t>Seasonal Local Fruits Platter</t>
+  </si>
+  <si>
+    <t>38000</t>
+  </si>
+  <si>
+    <t>Vanilla/Strawberry/Chocolate/Oreo/Coffee Gelato Ice Cream (2 scoops)</t>
+  </si>
+  <si>
+    <t>Espresso Parfait</t>
+  </si>
+  <si>
+    <t>Chocolate Salami</t>
+  </si>
+  <si>
+    <t>Wok-Fried Crispy Pork Belly Cantonese Style</t>
+  </si>
+  <si>
+    <t>Salted Egg with Crispy Fragrant Fish Skin</t>
+  </si>
+  <si>
+    <t>Poached Chicken with Fragrant Ma La Sauce</t>
+  </si>
+  <si>
+    <t>Fragrant Sliced Pecking Duck with Cucumber and Crispy Corn</t>
+  </si>
+  <si>
+    <t>Fragrant Sliced Top-Shell with Spicy Sour</t>
+  </si>
+  <si>
+    <t>Crystal Barbecued Pork Belly "Char Siew"</t>
+  </si>
+  <si>
+    <t>176000</t>
+  </si>
+  <si>
+    <t>Barbecued Meat Platter</t>
+  </si>
+  <si>
+    <t>Peking Duck - Two Ways</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>Cantonese Crispy Chicken</t>
+  </si>
+  <si>
+    <t>Szechuan Seafood Soup</t>
+  </si>
+  <si>
+    <t>Golden Carrot Soup</t>
+  </si>
+  <si>
+    <t>Double Boiled Dried Scallop, Fish Maw, and Sea Cucumber Soup</t>
+  </si>
+  <si>
+    <t>Golden Fragrant Fish Lip Soup</t>
+  </si>
+  <si>
+    <t>Double Boiled Three-Treasure Soup</t>
+  </si>
+  <si>
+    <t>478000</t>
+  </si>
+  <si>
+    <t>Steamed Hokkaido Scallops with Minced Garlic Butter and Glass Noodles</t>
+  </si>
+  <si>
+    <t>658000</t>
+  </si>
+  <si>
+    <t>Steamed Tiger Prawns with Minced Garlic Butter and Glass Noodles</t>
+  </si>
+  <si>
+    <t>248000</t>
+  </si>
+  <si>
+    <t>Wok-Fried Marble Fish Fillet (100 gram)</t>
+  </si>
+  <si>
+    <t>Wok-Fried Gurami Fish Fillet (100 gram)</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>Grouper Fish Steamed with Garlic Butter</t>
+  </si>
+  <si>
+    <t>Wok-Fried Fragrant Prawns</t>
+  </si>
+  <si>
+    <t>Wok-Fried Red Tilapia Fish Fillet (100 gram)</t>
+  </si>
+  <si>
+    <t>Baby Lobster</t>
+  </si>
+  <si>
+    <t>258000</t>
+  </si>
+  <si>
+    <t>Green Lobster</t>
+  </si>
+  <si>
+    <t>Wok-Fried/Pan Seared Beef with Black Pepper Sauce</t>
+  </si>
+  <si>
+    <t>338000</t>
+  </si>
+  <si>
+    <t>Wok-Fried/Pan Seared Beef with Red Wine Sauce</t>
+  </si>
+  <si>
+    <t>Wok-Fried/Pan Seared Beef with Mongolian Sauce</t>
+  </si>
+  <si>
+    <t>Wok-Fried Pork with Sweet and Sour Sauce</t>
+  </si>
+  <si>
+    <t>Wok-Fried Pork with Red Wine Sauce</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>Wok-Fried Pork with Wok-Fried Ginger, Sliced Spring Onion and Garlic</t>
+  </si>
+  <si>
+    <t>Wok-Fried Chicken with Three Cup Sauce</t>
+  </si>
+  <si>
+    <t>Wok-Fried Chicken with Fragrant Butter Sauce</t>
+  </si>
+  <si>
+    <t>Wok-Fried Chicken with Walnut Sauce</t>
+  </si>
+  <si>
+    <t>Wok-Fried Chicken with X.O. Sauce</t>
+  </si>
+  <si>
+    <t>Eight Treasure Flamed Chicken in Clay (Pre-order only)</t>
+  </si>
+  <si>
+    <t>988000</t>
+  </si>
+  <si>
+    <t>Stir-Fried French Bean with Shimeji Mushrooms and Minced Chicken "Sichuan" Style</t>
+  </si>
+  <si>
+    <t>Braised Eggplant with Minced Chicken in Hot Bean Paste</t>
+  </si>
+  <si>
+    <t>Crispy Homemade Beancurd with Fruit Sauce</t>
+  </si>
+  <si>
+    <t>Blanched is Spinach with Enoki Mushrooms, Wolfberries and Beancurd skin</t>
+  </si>
+  <si>
+    <t>Broccoli/Spinach/Chinese Cabbage/Celery/Kai-lan/Seasonal Vegetables</t>
+  </si>
+  <si>
+    <t>Young Chow Seafood Fried Rice</t>
+  </si>
+  <si>
+    <t>Crispy Fried Rice with Caviar and Seafood</t>
+  </si>
+  <si>
+    <t>X.O. Seafood Fried Rice</t>
+  </si>
+  <si>
+    <t>Steamed Dumpling Prawn in Fragrant Ma La Sauce</t>
+  </si>
+  <si>
+    <t>Steamed Chicken with Mushroom Pau (4 pieces)</t>
+  </si>
+  <si>
+    <t>Baked Eight-Minute Rice with Seafood in Curry Sauce Nanyang Style</t>
+  </si>
+  <si>
+    <t>Boiled Pork Dumplings with Minced Chinese Celery Stuffing (8 pieces)</t>
+  </si>
+  <si>
+    <t>Braised Noodles with Seafood Cantonese Style</t>
+  </si>
+  <si>
+    <t>Crispy Noodles with Chicken Cantonese Style</t>
+  </si>
+  <si>
+    <t>Dry Wanton Noodles with Chicken</t>
+  </si>
+  <si>
+    <t>Beef Noodle Soup</t>
+  </si>
+  <si>
+    <t>Stir-Fried Flat Rice Noodles with Sliced Beef Tenderloin Onion and Bean Sprouts</t>
+  </si>
+  <si>
+    <t>Rice Noodles Meesua with Ginger Wine and Fried Egg Soup</t>
+  </si>
+  <si>
+    <t>Singaporean Fried Vermicelli Noodles with Seafood</t>
+  </si>
+  <si>
+    <t>Braised Vermicelli Noodles with Pork</t>
+  </si>
+  <si>
+    <t>Rice Noodles Meesua with Seafood &amp; Fish Bone Soup</t>
+  </si>
+  <si>
+    <t>Steamed Pork Spare Ribs</t>
+  </si>
+  <si>
+    <t>Glatinous Rice Dumplings with Minced Duck in Black Pepper Sauce</t>
+  </si>
+  <si>
+    <t>Steamed Beancurd Skin with Pork Vegetable and Thai Chili Sauce</t>
+  </si>
+  <si>
+    <t>Steamed Bacon Rolls with King Sauce</t>
+  </si>
+  <si>
+    <t>Barbecue Pork Bun</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>Nishimura Bento</t>
+  </si>
+  <si>
+    <t>598000</t>
+  </si>
+  <si>
+    <t>Maiko Bento</t>
+  </si>
+  <si>
+    <t>Sushi Bento</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>Grilled Beef with Teriyaki Sauce</t>
+  </si>
+  <si>
+    <t>Grilled Chicken with Teriyaki Sauce</t>
+  </si>
+  <si>
+    <t>Assorted Grilled Chicken Skewers</t>
+  </si>
+  <si>
+    <t>Grilled Eggplant</t>
+  </si>
+  <si>
+    <t>888000</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>Grilled Squid with Salt</t>
+  </si>
+  <si>
+    <t>Grilled Saury Fish</t>
+  </si>
+  <si>
+    <t>Grilled Marinated Cod Fish with Miso</t>
+  </si>
+  <si>
+    <t>538000</t>
+  </si>
+  <si>
+    <t>Grilled Salmon with Teriyaki Sauce or Salt</t>
+  </si>
+  <si>
+    <t>Assorted Deluxe Sushi</t>
+  </si>
+  <si>
+    <t>458000</t>
+  </si>
+  <si>
+    <t>Marinated Tuna on Sushi Rice</t>
+  </si>
+  <si>
+    <t>Vinegar Mackarel on Sushi Rice</t>
+  </si>
+  <si>
+    <t>Grilled Mackarel</t>
+  </si>
+  <si>
+    <t>880000</t>
+  </si>
+  <si>
+    <t>Vinegar Salmon on Sushi Rice</t>
+  </si>
+  <si>
+    <t>Salmon and Salmon Roe on Sushi Rice</t>
+  </si>
+  <si>
+    <t>Sushi with Tempura Prawn</t>
+  </si>
+  <si>
+    <t>Soft Shell Crab Roll</t>
+  </si>
+  <si>
+    <t>Grilled Salmon Salad Roll</t>
+  </si>
+  <si>
+    <t>Tempura Sushi Rool with Sea Eel</t>
+  </si>
+  <si>
+    <t>Crab Stick Sashimi</t>
+  </si>
+  <si>
+    <t>Assorted Deluxe Sashimi</t>
+  </si>
+  <si>
+    <t>Sansyu Sashimi Moriawase (Three kinds of Sashimi)</t>
+  </si>
+  <si>
+    <t>Cold Noodles</t>
+  </si>
+  <si>
+    <t>Hot Sweet Fried Tofu Noodles</t>
+  </si>
+  <si>
+    <t>Egg and Fried Tofu Hot Noodles</t>
+  </si>
+  <si>
+    <t>Tempura Hot Noodles</t>
+  </si>
+  <si>
+    <t>Beef Hot Noodles</t>
+  </si>
+  <si>
+    <t>Seafood Hot Noodles</t>
+  </si>
+  <si>
+    <t>Green Tea Noodles</t>
+  </si>
+  <si>
+    <t>White Thin Noodles</t>
+  </si>
+  <si>
+    <t>Shabu-Shabu Wagyu Beef</t>
+  </si>
+  <si>
+    <t>Sukiyaki Imported Beef</t>
+  </si>
+  <si>
+    <t>Sukiyaki Wagyu Beef</t>
+  </si>
+  <si>
+    <t>Shabu-Shabu Imported Beef</t>
+  </si>
+  <si>
+    <t>Chilled Chinese Pear with Honey and Lemon</t>
+  </si>
+  <si>
+    <t>Refreshing Lemongrass Jelly with Lime Sorbet</t>
+  </si>
+  <si>
+    <t>Double-Bouled Imperial Bird's Nest with Honey and Lemon</t>
+  </si>
+  <si>
+    <t>Tempura Custard Milk Cream</t>
+  </si>
+  <si>
+    <t>Deep-Fried Crumbled Taro Ice Cream</t>
+  </si>
+  <si>
+    <t>Asparagus with Cream Corn Soup</t>
+  </si>
+  <si>
+    <t>Vegetarian Duck with Chinese Flower Buns and Condiments</t>
+  </si>
+  <si>
+    <t>Braised Assorted Wild Mushrooms with Pak Choy</t>
+  </si>
+  <si>
+    <t>Sauteed Mixed Vegetables with Cashew Nuts</t>
+  </si>
+  <si>
+    <t>Vegetarian Fried Rice</t>
+  </si>
+  <si>
+    <t>Orange Juice</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>Watermelon Juice</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>Avocado Juice</t>
+  </si>
+  <si>
+    <t>Melon Juice</t>
+  </si>
+  <si>
+    <t>Coca-Cola (Regular, Zero, Diet)</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Tonic Water</t>
+  </si>
+  <si>
+    <t>Soda Water</t>
+  </si>
+  <si>
+    <t>Ginger Ale</t>
+  </si>
+  <si>
+    <t>Green Sands</t>
+  </si>
+  <si>
+    <t>Cold Ocha</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>Sapporo</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>Bintang Beer 300 ml</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>Heineken 300 ml</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>San Miguel 300 ml</t>
+  </si>
+  <si>
+    <t>Carlsberg 300 ml</t>
+  </si>
+  <si>
+    <t>Guinness Stout 300 ml</t>
+  </si>
+  <si>
+    <t>83000</t>
+  </si>
+  <si>
+    <t>Acqua Panna Natural 500 ml</t>
+  </si>
+  <si>
+    <t>Acqua Panna Natural 1000 ml</t>
+  </si>
+  <si>
+    <t>San Pellegrino Sparkling 500 ml</t>
+  </si>
+  <si>
+    <t>San Pellegrino Sparkling 1000 ml</t>
+  </si>
+  <si>
+    <t>Evian 500 ml</t>
+  </si>
+  <si>
+    <t>Fiji Water 500 ml</t>
+  </si>
+  <si>
+    <t>Equil Still 330 ml</t>
+  </si>
+  <si>
+    <t>Equil Sparkling 330 ml</t>
+  </si>
+  <si>
+    <t>Aqua Reflection Still 500 ml</t>
+  </si>
+  <si>
+    <t>Aqua Reflection Sparkling 500 ml</t>
+  </si>
+  <si>
+    <t>French Earl Grey</t>
+  </si>
+  <si>
+    <t>Chamomile</t>
+  </si>
+  <si>
+    <t>Jasmine Queen</t>
+  </si>
+  <si>
+    <t>Moroccan Mint</t>
+  </si>
+  <si>
+    <t>Oolong Prestige</t>
+  </si>
+  <si>
+    <t>Ice Tea</t>
+  </si>
+  <si>
+    <t>Ice Lemon Tea</t>
+  </si>
+  <si>
+    <t>Ice Strawberry Tea</t>
+  </si>
+  <si>
+    <t>Ice Lychee Tea</t>
+  </si>
+  <si>
+    <t>Black Coffee (Americano)</t>
+  </si>
+  <si>
+    <t>59000</t>
+  </si>
+  <si>
+    <t>Cappuccino</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
+    <t>Macchiato</t>
+  </si>
+  <si>
+    <t>Ristretto</t>
+  </si>
+  <si>
+    <t>Corretto</t>
+  </si>
+  <si>
+    <t>Café Mocha</t>
+  </si>
+  <si>
+    <t>Piccolo Latte</t>
+  </si>
+  <si>
+    <t>Flat White</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CA31F7-0E6A-485A-9A97-4C5F7C2963B3}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2195,6 +3095,528 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF682C3-6D76-4F7D-80A9-0F563DC86EE9}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9C930A-3462-46E0-8E42-7F5436210797}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -6866,4 +8288,4769 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065E289-0E27-4BFF-95D7-B06D77E6D4DB}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FA0508-DA61-4F53-A369-F27C249D383B}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0806AFB0-FA35-43EE-9218-27F9FB3F4DBB}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2F4E68-013A-41D5-9B2F-25734CDF84FE}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5336B-F437-4987-8344-87756C58031E}">
+  <dimension ref="A1:F213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C154" s="1">
+        <v>318000</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCA6BFE-3DB7-4943-9110-E08FC8779668}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F7A97-E99F-48AD-8D18-90716F001D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71D2B0-1611-4B11-82AC-9B33C9B5B9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Makanan" sheetId="6" r:id="rId8"/>
     <sheet name="Jenis Makanan" sheetId="7" r:id="rId9"/>
     <sheet name="Pemesanan Makanan" sheetId="8" r:id="rId10"/>
-    <sheet name="Tamu" sheetId="9" r:id="rId11"/>
-    <sheet name="Reservasi" sheetId="10" r:id="rId12"/>
+    <sheet name="Detail Pemesanan Makanan" sheetId="15" r:id="rId11"/>
+    <sheet name="Tamu" sheetId="9" r:id="rId12"/>
+    <sheet name="Reservasi" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="892">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -2396,6 +2397,330 @@
   </si>
   <si>
     <t>Flat White</t>
+  </si>
+  <si>
+    <t>id_pemesanan</t>
+  </si>
+  <si>
+    <t>kode_pemesanan</t>
+  </si>
+  <si>
+    <t>tanggal_pemesanan</t>
+  </si>
+  <si>
+    <t>kode_tamu</t>
+  </si>
+  <si>
+    <t>id_tamu</t>
+  </si>
+  <si>
+    <t>nama_tamu</t>
+  </si>
+  <si>
+    <t>jenis_kelamin_tamu</t>
+  </si>
+  <si>
+    <t>tanggal_lahir_tamu</t>
+  </si>
+  <si>
+    <t>alamat_tamu</t>
+  </si>
+  <si>
+    <t>nomor_telepon_tamu</t>
+  </si>
+  <si>
+    <t>email_tamu</t>
+  </si>
+  <si>
+    <t>1978-10-17</t>
+  </si>
+  <si>
+    <t>0247608795</t>
+  </si>
+  <si>
+    <t>frankdwilliams@armyspy.com</t>
+  </si>
+  <si>
+    <t>FRWI001</t>
+  </si>
+  <si>
+    <t>Frank Williams</t>
+  </si>
+  <si>
+    <t>Bobby Gainer</t>
+  </si>
+  <si>
+    <t>1977-07-22</t>
+  </si>
+  <si>
+    <t>bobbyagainer@dayrep.com</t>
+  </si>
+  <si>
+    <t>5152746701</t>
+  </si>
+  <si>
+    <t>Jl. Hayam Wuruk Glodok Jaya Blok C/28 Lt. Dasar, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>Jl. Siliwangi 381, Jawa Tengah</t>
+  </si>
+  <si>
+    <t>BOGA001</t>
+  </si>
+  <si>
+    <t>Jl. Ngagel Jaya Indah I/10, Jawa Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0315025552</t>
+  </si>
+  <si>
+    <t>Jl. Kalibutuh 195-197, Jawa Timur</t>
+  </si>
+  <si>
+    <t>0315311552</t>
+  </si>
+  <si>
+    <t>Jl. Cempaka Putih XIX 8 RT 007/07, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>0214264274</t>
+  </si>
+  <si>
+    <t>Jl. Rawagatel Kav. III Blok S-39, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>0214894934</t>
+  </si>
+  <si>
+    <t>Jl. Jayakarta 141 Blok C/14, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>0216289758</t>
+  </si>
+  <si>
+    <t>Jl. Jend Sudirman Kav. 33 A Wisma Standard Chartered Bank, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>0215721057</t>
+  </si>
+  <si>
+    <t>Jl. Letjen Haryono MT 821, Jawa Tengah</t>
+  </si>
+  <si>
+    <t>0248316638</t>
+  </si>
+  <si>
+    <t>Kompleks Palem Indah Blok R-1/4 RT 011/011, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>02186903256</t>
+  </si>
+  <si>
+    <t>Jl. Raya Kuta 56 Blok D-E, Bali</t>
+  </si>
+  <si>
+    <t>0361754391</t>
+  </si>
+  <si>
+    <t>Jl. Kelapa Puyuh 11 Kompleks Kelapa Gading Permai Blok KD/30, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>0214520325</t>
+  </si>
+  <si>
+    <t>Jl. Kol. Yos Sudarso 11 B, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>02143902350</t>
+  </si>
+  <si>
+    <t>Janice Moore</t>
+  </si>
+  <si>
+    <t>JAMO001</t>
+  </si>
+  <si>
+    <t>1998-01-19</t>
+  </si>
+  <si>
+    <t>janicetmoore@teleworm.us</t>
+  </si>
+  <si>
+    <t>Jimmy Boggs</t>
+  </si>
+  <si>
+    <t>1980-06-10</t>
+  </si>
+  <si>
+    <t>JIBO001</t>
+  </si>
+  <si>
+    <t>jimmysboggs@rhyta.com</t>
+  </si>
+  <si>
+    <t>Jennie Huff</t>
+  </si>
+  <si>
+    <t>JEHU001</t>
+  </si>
+  <si>
+    <t>1990-05-13</t>
+  </si>
+  <si>
+    <t>jennielhuff@jourrapide.com</t>
+  </si>
+  <si>
+    <t>Dalia Napolitano</t>
+  </si>
+  <si>
+    <t>1986-10-27</t>
+  </si>
+  <si>
+    <t>DANA001</t>
+  </si>
+  <si>
+    <t>dalianapolitano@rhyta.com</t>
+  </si>
+  <si>
+    <t>Dalgisa Napolitano</t>
+  </si>
+  <si>
+    <t>DANA002</t>
+  </si>
+  <si>
+    <t>1996-07-12</t>
+  </si>
+  <si>
+    <t>dalgisanapolitano@armyspy.com</t>
+  </si>
+  <si>
+    <t>Chen Kang</t>
+  </si>
+  <si>
+    <t>1980-02-11</t>
+  </si>
+  <si>
+    <t>chenkang@teleworm.us</t>
+  </si>
+  <si>
+    <t>CHKA001</t>
+  </si>
+  <si>
+    <t>Yi Jie Tseng</t>
+  </si>
+  <si>
+    <t>1989-10-28</t>
+  </si>
+  <si>
+    <t>yijietseng@teleworm.us</t>
+  </si>
+  <si>
+    <t>YIJI001</t>
+  </si>
+  <si>
+    <t>Lee Chou</t>
+  </si>
+  <si>
+    <t>1991-01-03</t>
+  </si>
+  <si>
+    <t>leechou@teleworm.us</t>
+  </si>
+  <si>
+    <t>LECH001</t>
+  </si>
+  <si>
+    <t>Suzuhana Yuko</t>
+  </si>
+  <si>
+    <t>1983-06-07</t>
+  </si>
+  <si>
+    <t>SUYU001</t>
+  </si>
+  <si>
+    <t>yukosuzuhana@wagakkiband.com</t>
+  </si>
+  <si>
+    <t>Myoui Mina</t>
+  </si>
+  <si>
+    <t>MYMI001</t>
+  </si>
+  <si>
+    <t>1997-03-24</t>
+  </si>
+  <si>
+    <t>minamyoui@twicejapan.com</t>
+  </si>
+  <si>
+    <t>1993-05-16</t>
+  </si>
+  <si>
+    <t>Lee Ji-eun</t>
+  </si>
+  <si>
+    <t>LEJI001</t>
+  </si>
+  <si>
+    <t>dlwlrma@edam-ent.com</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>Kim Min-jeong</t>
+  </si>
+  <si>
+    <t>KIMI001</t>
+  </si>
+  <si>
+    <t>winter@sm-entertainment.com</t>
+  </si>
+  <si>
+    <t>1994-06-09</t>
+  </si>
+  <si>
+    <t>Lee Hye-ri</t>
+  </si>
+  <si>
+    <t>LEHY001</t>
+  </si>
+  <si>
+    <t>hyerissi@gumiho.tv</t>
+  </si>
+  <si>
+    <t>Jl. Tarumanegara 67, DKI Jakarta</t>
+  </si>
+  <si>
+    <t>0217499840</t>
+  </si>
+  <si>
+    <t>Jl. Purwakarta 169, Jawa Barat</t>
+  </si>
+  <si>
+    <t>0227270229</t>
+  </si>
+  <si>
+    <t>negara_asal</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -2466,7 +2791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2478,6 +2803,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3102,11 +3430,147 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF682C3-6D76-4F7D-80A9-0F563DC86EE9}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE719F-030A-44C7-B210-BEC96CEA2F07}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3274,181 +3738,497 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9C930A-3462-46E0-8E42-7F5436210797}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>788</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>488</v>
+        <v>787</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>489</v>
+        <v>789</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>490</v>
+        <v>790</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>491</v>
+        <v>791</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>880</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -8990,7 +9770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5336B-F437-4987-8344-87756C58031E}">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71D2B0-1611-4B11-82AC-9B33C9B5B9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD4C88A-A8EB-4C44-8071-1FC7CC26719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="957">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -2721,6 +2721,201 @@
   </si>
   <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>id_reservasi</t>
+  </si>
+  <si>
+    <t>kode_reservasi</t>
+  </si>
+  <si>
+    <t>down_payment</t>
+  </si>
+  <si>
+    <t>deposito</t>
+  </si>
+  <si>
+    <t>tanggal_check_in</t>
+  </si>
+  <si>
+    <t>tanggal_check_out</t>
+  </si>
+  <si>
+    <t>total_tarif_kamar</t>
+  </si>
+  <si>
+    <t>ROS1102</t>
+  </si>
+  <si>
+    <t>DES911</t>
+  </si>
+  <si>
+    <t>EXS1005</t>
+  </si>
+  <si>
+    <t>JUS812</t>
+  </si>
+  <si>
+    <t>PRT605</t>
+  </si>
+  <si>
+    <t>CLT711</t>
+  </si>
+  <si>
+    <t>CLK716</t>
+  </si>
+  <si>
+    <t>PRS1212</t>
+  </si>
+  <si>
+    <t>PRS1211</t>
+  </si>
+  <si>
+    <t>PRS1210</t>
+  </si>
+  <si>
+    <t>SUT212</t>
+  </si>
+  <si>
+    <t>DET418</t>
+  </si>
+  <si>
+    <t>SUK119</t>
+  </si>
+  <si>
+    <t>DEK406</t>
+  </si>
+  <si>
+    <t>PRK603</t>
+  </si>
+  <si>
+    <t>1800000</t>
+  </si>
+  <si>
+    <t>550000</t>
+  </si>
+  <si>
+    <t>530000</t>
+  </si>
+  <si>
+    <t>1450000</t>
+  </si>
+  <si>
+    <t>1130000</t>
+  </si>
+  <si>
+    <t>1150000</t>
+  </si>
+  <si>
+    <t>4550000</t>
+  </si>
+  <si>
+    <t>825000</t>
+  </si>
+  <si>
+    <t>805000</t>
+  </si>
+  <si>
+    <t>465000</t>
+  </si>
+  <si>
+    <t>445000</t>
+  </si>
+  <si>
+    <t>950000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>4850000</t>
+  </si>
+  <si>
+    <t>4700000</t>
+  </si>
+  <si>
+    <t>4350000</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>3700000</t>
+  </si>
+  <si>
+    <t>3400000</t>
+  </si>
+  <si>
+    <t>3250000</t>
+  </si>
+  <si>
+    <t>3100000</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>2850000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>2750000</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>id_detail_pemesanan</t>
+  </si>
+  <si>
+    <t>jumlah_pemesanan</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CA31F7-0E6A-485A-9A97-4C5F7C2963B3}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3568,169 +3765,135 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE719F-030A-44C7-B210-BEC96CEA2F07}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3742,7 +3905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9C930A-3462-46E0-8E42-7F5436210797}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4230,173 +4393,554 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>892</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>488</v>
+        <v>893</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>489</v>
+        <v>787</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>490</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>491</v>
+        <v>894</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="str">
+        <f>CONCATENATE("RSV", "12", "04", "22", "FW", "1102")</f>
+        <v>RSV120422FW1102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="I2" s="1">
+        <f>E2*2</f>
+        <v>3600000</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="str">
+        <f>CONCATENATE("RSV", "14", "04", "22", "BG", "0911")</f>
+        <v>RSV140422BG0911</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I16" si="0">E3*2</f>
+        <v>2600000</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="str">
+        <f>CONCATENATE("RSV", "17", "04", "22", "JM", "0418")</f>
+        <v>RSV170422JM0418</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="str">
+        <f>CONCATENATE("RSV", "18", "04", "22", "JB", "1005")</f>
+        <v>RSV180422JB1005</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>2900000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="str">
+        <f>CONCATENATE("RSV", "18", "04", "22", "JH", "0603")</f>
+        <v>RSV180422JH0603</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>2260000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="str">
+        <f>CONCATENATE("RSV", "22", "04", "22", "DN", "0212")</f>
+        <v>RSV220422DN0212</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>930000</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="str">
+        <f>CONCATENATE("RSV", "23", "04", "22", "DN", "0119")</f>
+        <v>RSV230422DN0119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>890000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="str">
+        <f>CONCATENATE("RSV", "25", "04", "22", "CK", "0812")</f>
+        <v>RSV250422CK0812</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1900000</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="str">
+        <f>CONCATENATE("RSV", "27", "04", "22", "YJ", "0605")</f>
+        <v>RSV270422YJ0605</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>2300000</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="str">
+        <f>CONCATENATE("RSV", "01", "05", "22", "LC", "0711")</f>
+        <v>RSV010522LC0711</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>1650000</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE("RSV", "04", "05", "22", "MM", "0716")</f>
+        <v>RSV040522MM0716</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>1610000</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="str">
+        <f>CONCATENATE("RSV", "07", "05", "22", "SY", "0406")</f>
+        <v>RSV070522SY0406</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="4" t="str">
+        <f>CONCATENATE("RSV", "16", "05", "22", "LJ", "1210")</f>
+        <v>RSV160522LJ1210</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>9100000</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>CONCATENATE("RSV", "16", "05", "22", "KM", "1211")</f>
+        <v>RSV160522KM1211</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>9100000</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>CONCATENATE("RSV", "16", "05", "22", "LH", "1212")</f>
+        <v>RSV160522LH1212</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>9100000</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD4C88A-A8EB-4C44-8071-1FC7CC26719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F467CB-F2BC-4CAF-BAD5-CF5ECAF272A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
@@ -2741,9 +2741,6 @@
     <t>tanggal_check_out</t>
   </si>
   <si>
-    <t>total_tarif_kamar</t>
-  </si>
-  <si>
     <t>ROS1102</t>
   </si>
   <si>
@@ -2916,6 +2913,9 @@
   </si>
   <si>
     <t>jumlah_pemesanan</t>
+  </si>
+  <si>
+    <t>total_biaya</t>
   </si>
 </sst>
 </file>
@@ -3627,9 +3627,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF682C3-6D76-4F7D-80A9-0F563DC86EE9}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3732,30 +3734,6 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3779,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>785</v>
@@ -3788,7 +3766,7 @@
         <v>487</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4407,7 +4385,7 @@
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4437,7 +4415,7 @@
         <v>897</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>898</v>
+        <v>956</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>0</v>
@@ -4455,19 +4433,19 @@
         <v>798</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I2" s="1">
         <f>E2*2</f>
@@ -4489,19 +4467,19 @@
         <v>806</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I16" si="0">E3*2</f>
@@ -4523,19 +4501,19 @@
         <v>830</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -4557,19 +4535,19 @@
         <v>835</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
@@ -4591,19 +4569,19 @@
         <v>838</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
@@ -4625,19 +4603,19 @@
         <v>843</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
@@ -4659,16 +4637,16 @@
         <v>846</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
@@ -4691,19 +4669,19 @@
         <v>852</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
@@ -4725,19 +4703,19 @@
         <v>856</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
@@ -4759,19 +4737,19 @@
         <v>860</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
@@ -4793,16 +4771,16 @@
         <v>866</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
@@ -4825,13 +4803,13 @@
         <v>863</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4852,16 +4830,16 @@
         <v>871</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
@@ -4884,16 +4862,16 @@
         <v>875</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
@@ -4916,16 +4894,16 @@
         <v>879</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1">

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F467CB-F2BC-4CAF-BAD5-CF5ECAF272A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637DBDF-7B32-43AA-9A67-BAC490753F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="9" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="958">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -2916,6 +2916,9 @@
   </si>
   <si>
     <t>total_biaya</t>
+  </si>
+  <si>
+    <t>total_biaya_pemesanan</t>
   </si>
 </sst>
 </file>
@@ -3627,9 +3630,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF682C3-6D76-4F7D-80A9-0F563DC86EE9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3639,9 +3642,10 @@
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>784</v>
       </c>
@@ -3654,86 +3658,54 @@
       <c r="D1" s="3" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3745,7 +3717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE719F-030A-44C7-B210-BEC96CEA2F07}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4373,7 +4347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637DBDF-7B32-43AA-9A67-BAC490753F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396150D-A2D7-4474-A640-D12DB1CDBB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="9" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="969">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -2919,6 +2919,39 @@
   </si>
   <si>
     <t>total_biaya_pemesanan</t>
+  </si>
+  <si>
+    <t>NOTA26042200001</t>
+  </si>
+  <si>
+    <t>NOTA26042200002</t>
+  </si>
+  <si>
+    <t>NOTA01052200001</t>
+  </si>
+  <si>
+    <t>NOTA04052200001</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>NOTA16052200001</t>
+  </si>
+  <si>
+    <t>subtotal_biaya_pemesanan</t>
+  </si>
+  <si>
+    <t>479000</t>
+  </si>
+  <si>
+    <t>1148000</t>
+  </si>
+  <si>
+    <t>948000</t>
+  </si>
+  <si>
+    <t>406000</t>
   </si>
 </sst>
 </file>
@@ -3632,14 +3665,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF682C3-6D76-4F7D-80A9-0F563DC86EE9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
@@ -3666,46 +3697,86 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>968</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3715,21 +3786,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE719F-030A-44C7-B210-BEC96CEA2F07}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>954</v>
       </c>
@@ -3742,110 +3812,225 @@
       <c r="D1" s="3" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C2" s="1">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1">
+        <f>138000*D2</f>
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C3" s="1">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1">
+        <f>148000*D3</f>
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <f>55000*D4</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1">
+        <f>188000*D5</f>
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1">
+        <f>478000*D6</f>
+        <v>478000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1">
+        <f>68000*D7</f>
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1">
+        <f>158000*D8</f>
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="1">
+        <f>178000*D9</f>
+        <v>534000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="1">
+        <f>138000*D10</f>
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1">
+        <f>70000*D11</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1">
+        <f>135000*D12</f>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1">
+        <f>68000*D13</f>
+        <v>136000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396150D-A2D7-4474-A640-D12DB1CDBB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499D2910-6B54-43CD-A939-F3D1DC8E13E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="9" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="975">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -2952,6 +2952,24 @@
   </si>
   <si>
     <t>406000</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>status_karyawan</t>
+  </si>
+  <si>
+    <t>status_jenis_kamar</t>
+  </si>
+  <si>
+    <t>status_jenis_makanan</t>
+  </si>
+  <si>
+    <t>status_tamu</t>
+  </si>
+  <si>
+    <t>status_reservasi</t>
   </si>
 </sst>
 </file>
@@ -3353,11 +3371,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CA31F7-0E6A-485A-9A97-4C5F7C2963B3}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3372,9 +3388,10 @@
     <col min="9" max="9" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
@@ -3408,8 +3425,11 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3443,8 +3463,11 @@
       <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3478,8 +3501,11 @@
       <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3513,8 +3539,11 @@
       <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3548,8 +3577,11 @@
       <c r="K5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3583,8 +3615,11 @@
       <c r="K6" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3618,8 +3653,11 @@
       <c r="K7" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3652,6 +3690,9 @@
       </c>
       <c r="K8" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3665,7 +3706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF682C3-6D76-4F7D-80A9-0F563DC86EE9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4040,7 +4081,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9C930A-3462-46E0-8E42-7F5436210797}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4055,9 +4096,10 @@
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>788</v>
       </c>
@@ -4085,8 +4127,11 @@
       <c r="I1" s="3" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4114,8 +4159,11 @@
       <c r="I2" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4143,8 +4191,11 @@
       <c r="I3" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4172,8 +4223,11 @@
       <c r="I4" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4201,8 +4255,11 @@
       <c r="I5" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4230,8 +4287,11 @@
       <c r="I6" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4259,8 +4319,11 @@
       <c r="I7" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4288,8 +4351,11 @@
       <c r="I8" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4317,8 +4383,11 @@
       <c r="I9" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4346,8 +4415,11 @@
       <c r="I10" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4375,8 +4447,11 @@
       <c r="I11" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4404,8 +4479,11 @@
       <c r="I12" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4433,8 +4511,11 @@
       <c r="I13" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4462,8 +4543,11 @@
       <c r="I14" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4491,8 +4575,11 @@
       <c r="I15" s="2" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4519,6 +4606,9 @@
       </c>
       <c r="I16" s="2" t="s">
         <v>880</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4530,9 +4620,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4546,9 +4636,10 @@
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>892</v>
       </c>
@@ -4579,12 +4670,15 @@
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="1" t="str">
         <f>CONCATENATE("RSV", "12", "04", "22", "FW", "1102")</f>
         <v>RSV120422FW1102</v>
       </c>
@@ -4613,12 +4707,15 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="1" t="str">
         <f>CONCATENATE("RSV", "14", "04", "22", "BG", "0911")</f>
         <v>RSV140422BG0911</v>
       </c>
@@ -4641,18 +4738,21 @@
         <v>944</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I16" si="0">E3*2</f>
+        <f t="shared" ref="I3:I15" si="0">E3*2</f>
         <v>2600000</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="1" t="str">
         <f>CONCATENATE("RSV", "17", "04", "22", "JM", "0418")</f>
         <v>RSV170422JM0418</v>
       </c>
@@ -4681,12 +4781,15 @@
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="1" t="str">
         <f>CONCATENATE("RSV", "18", "04", "22", "JB", "1005")</f>
         <v>RSV180422JB1005</v>
       </c>
@@ -4715,12 +4818,15 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="1" t="str">
         <f>CONCATENATE("RSV", "18", "04", "22", "JH", "0603")</f>
         <v>RSV180422JH0603</v>
       </c>
@@ -4743,18 +4849,21 @@
         <v>943</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>2260000</v>
+        <f>E6*2+479000</f>
+        <v>2739000</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="1" t="str">
         <f>CONCATENATE("RSV", "22", "04", "22", "DN", "0212")</f>
         <v>RSV220422DN0212</v>
       </c>
@@ -4783,12 +4892,15 @@
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="1" t="str">
         <f>CONCATENATE("RSV", "23", "04", "22", "DN", "0119")</f>
         <v>RSV230422DN0119</v>
       </c>
@@ -4807,20 +4919,25 @@
       <c r="G8" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>890000</v>
+        <f>E8*2+1148000</f>
+        <v>2038000</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="1" t="str">
         <f>CONCATENATE("RSV", "25", "04", "22", "CK", "0812")</f>
         <v>RSV250422CK0812</v>
       </c>
@@ -4849,12 +4966,15 @@
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="1" t="str">
         <f>CONCATENATE("RSV", "27", "04", "22", "YJ", "0605")</f>
         <v>RSV270422YJ0605</v>
       </c>
@@ -4877,18 +4997,21 @@
         <v>951</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>2300000</v>
+        <f>E10*2+948000+70000</f>
+        <v>3318000</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="1" t="str">
         <f>CONCATENATE("RSV", "01", "05", "22", "LC", "0711")</f>
         <v>RSV010522LC0711</v>
       </c>
@@ -4917,12 +5040,15 @@
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="1" t="str">
         <f>CONCATENATE("RSV", "04", "05", "22", "MM", "0716")</f>
         <v>RSV040522MM0716</v>
       </c>
@@ -4941,7 +5067,9 @@
       <c r="G12" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>1610000</v>
@@ -4949,12 +5077,15 @@
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="1" t="str">
         <f>CONCATENATE("RSV", "07", "05", "22", "SY", "0406")</f>
         <v>RSV070522SY0406</v>
       </c>
@@ -4970,18 +5101,27 @@
       <c r="F13" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="1" t="str">
         <f>CONCATENATE("RSV", "16", "05", "22", "LJ", "1210")</f>
         <v>RSV160522LJ1210</v>
       </c>
@@ -5000,7 +5140,9 @@
       <c r="G14" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>9100000</v>
@@ -5008,12 +5150,15 @@
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="1" t="str">
         <f>CONCATENATE("RSV", "16", "05", "22", "KM", "1211")</f>
         <v>RSV160522KM1211</v>
       </c>
@@ -5032,7 +5177,9 @@
       <c r="G15" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>9100000</v>
@@ -5040,12 +5187,15 @@
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="1" t="str">
         <f>CONCATENATE("RSV", "16", "05", "22", "LH", "1212")</f>
         <v>RSV160522LH1212</v>
       </c>
@@ -5064,13 +5214,18 @@
       <c r="G16" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>9100000</v>
+        <f>E16*2+406000</f>
+        <v>9506000</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9581,7 +9736,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830906F9-7B95-44BD-BED9-EFDC0D5DB4B9}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9589,9 +9744,10 @@
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -9601,8 +9757,11 @@
       <c r="C1" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9612,8 +9771,11 @@
       <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9623,8 +9785,11 @@
       <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9634,8 +9799,11 @@
       <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9645,8 +9813,11 @@
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9656,8 +9827,11 @@
       <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9667,8 +9841,11 @@
       <c r="C7" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9678,8 +9855,11 @@
       <c r="C8" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9689,8 +9869,11 @@
       <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9700,8 +9883,11 @@
       <c r="C10" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9711,8 +9897,11 @@
       <c r="C11" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9722,8 +9911,11 @@
       <c r="C12" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9733,8 +9925,11 @@
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9743,6 +9938,9 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14308,7 +14506,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCA6BFE-3DB7-4943-9110-E08FC8779668}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14316,198 +14514,271 @@
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>515</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499D2910-6B54-43CD-A939-F3D1DC8E13E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01053D8-532B-4557-9E9E-1100D9A8F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1056">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -2970,6 +2970,249 @@
   </si>
   <si>
     <t>status_reservasi</t>
+  </si>
+  <si>
+    <t>id_fasilitas</t>
+  </si>
+  <si>
+    <t>nama_fasilitas</t>
+  </si>
+  <si>
+    <t>status_fasilitas</t>
+  </si>
+  <si>
+    <t>Club lounge access</t>
+  </si>
+  <si>
+    <t>Private access floor</t>
+  </si>
+  <si>
+    <t>Hot buffet breakfast</t>
+  </si>
+  <si>
+    <t>Midday snack</t>
+  </si>
+  <si>
+    <t>Afternoon tea</t>
+  </si>
+  <si>
+    <t>Late night snack</t>
+  </si>
+  <si>
+    <t>Cocktails, for a fee</t>
+  </si>
+  <si>
+    <t>Complimentary cocktails</t>
+  </si>
+  <si>
+    <t>Complimentary non-alcoholic beverages</t>
+  </si>
+  <si>
+    <t>Business services, for a fee</t>
+  </si>
+  <si>
+    <t>Complimentary business services</t>
+  </si>
+  <si>
+    <t>Complimentary pressing, 2 garments per stay</t>
+  </si>
+  <si>
+    <t>Complimentary pressing, 5 garments per stay</t>
+  </si>
+  <si>
+    <t>Evening Bar Service</t>
+  </si>
+  <si>
+    <t>Featherbed</t>
+  </si>
+  <si>
+    <t>Duvet</t>
+  </si>
+  <si>
+    <t>Air Conditioner</t>
+  </si>
+  <si>
+    <t>Non-smoking room</t>
+  </si>
+  <si>
+    <t>Living/sitting area</t>
+  </si>
+  <si>
+    <t>Dining room is separated</t>
+  </si>
+  <si>
+    <t>Living room is separated from bed by privacy wall</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Walk-in closet</t>
+  </si>
+  <si>
+    <t>Hooks</t>
+  </si>
+  <si>
+    <t>Windows, soundproof</t>
+  </si>
+  <si>
+    <t>USB Outlets</t>
+  </si>
+  <si>
+    <t>Marble Bathroom</t>
+  </si>
+  <si>
+    <t>Shower/Tub Combination</t>
+  </si>
+  <si>
+    <t>Bidet</t>
+  </si>
+  <si>
+    <t>Lighted Makeup Mirror</t>
+  </si>
+  <si>
+    <t>Hair Dryer</t>
+  </si>
+  <si>
+    <t>Robe</t>
+  </si>
+  <si>
+    <t>Slippers</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Alarm Clock</t>
+  </si>
+  <si>
+    <t>Safe, in room</t>
+  </si>
+  <si>
+    <t>Outlet with Dual Voltage Adaptors</t>
+  </si>
+  <si>
+    <t>Table with seating for 1</t>
+  </si>
+  <si>
+    <t>Table with seating for 2</t>
+  </si>
+  <si>
+    <t>Table with seating for 4</t>
+  </si>
+  <si>
+    <t>Table with seating for 5</t>
+  </si>
+  <si>
+    <t>Desk, writing/work, electrical outlet</t>
+  </si>
+  <si>
+    <t>Desk, writing/work, with ergonomic chair, and electrical outlet</t>
+  </si>
+  <si>
+    <t>Electrical Outlet</t>
+  </si>
+  <si>
+    <t>Iron and Ironing Board</t>
+  </si>
+  <si>
+    <t>Room Service, 24-Hour</t>
+  </si>
+  <si>
+    <t>Bottled Water</t>
+  </si>
+  <si>
+    <t>Coffee/tea maker</t>
+  </si>
+  <si>
+    <t>Instant Hot Water</t>
+  </si>
+  <si>
+    <t>Mini-bar, for a fee</t>
+  </si>
+  <si>
+    <t>Appetizer</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Mini-refrigerator</t>
+  </si>
+  <si>
+    <t>Phones: 1</t>
+  </si>
+  <si>
+    <t>Phones: 3</t>
+  </si>
+  <si>
+    <t>Phones: 4</t>
+  </si>
+  <si>
+    <t>Speaker phone</t>
+  </si>
+  <si>
+    <t>High-Speed Internet</t>
+  </si>
+  <si>
+    <t>Complimentary High-Speed Internet</t>
+  </si>
+  <si>
+    <t>Wireless Internet</t>
+  </si>
+  <si>
+    <t>Complimentary Wireless Internet</t>
+  </si>
+  <si>
+    <t>Evening Turndown Service</t>
+  </si>
+  <si>
+    <t>Butler Service</t>
+  </si>
+  <si>
+    <t>Newspaper delivered to room on request</t>
+  </si>
+  <si>
+    <t>TV with Remote Control, 32in/81cm</t>
+  </si>
+  <si>
+    <t>TV with Remote Control, 32in/81cm, and Flat screen</t>
+  </si>
+  <si>
+    <t>TV with Remote Control, 32in/81cm, and LED screen</t>
+  </si>
+  <si>
+    <t>TV with Remote Control, largest 55in/140cm, and LED screen</t>
+  </si>
+  <si>
+    <t>Plug-in High Tech Room</t>
+  </si>
+  <si>
+    <t>Premium Movie Channels</t>
+  </si>
+  <si>
+    <t>International Cable/Satellite TV</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>iPod Dock</t>
+  </si>
+  <si>
+    <t>King Bed</t>
+  </si>
+  <si>
+    <t>Double Bed</t>
+  </si>
+  <si>
+    <t>Expanded ala carte menu (for purchase)</t>
+  </si>
+  <si>
+    <t>Dining room</t>
   </si>
 </sst>
 </file>
@@ -4622,7 +4865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9951,173 +10194,899 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065E289-0E27-4BFF-95D7-B06D77E6D4DB}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>975</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>488</v>
+        <v>976</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01053D8-532B-4557-9E9E-1100D9A8F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B4235-2C8B-45B6-9E2D-95087B3C6B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1069">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -2771,15 +2771,9 @@
     <t>PRS1210</t>
   </si>
   <si>
-    <t>SUT212</t>
-  </si>
-  <si>
     <t>DET418</t>
   </si>
   <si>
-    <t>SUK119</t>
-  </si>
-  <si>
     <t>DEK406</t>
   </si>
   <si>
@@ -2813,12 +2807,6 @@
     <t>805000</t>
   </si>
   <si>
-    <t>465000</t>
-  </si>
-  <si>
-    <t>445000</t>
-  </si>
-  <si>
     <t>950000</t>
   </si>
   <si>
@@ -2855,12 +2843,6 @@
     <t>2850000</t>
   </si>
   <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>2750000</t>
-  </si>
-  <si>
     <t>2022-04-25</t>
   </si>
   <si>
@@ -3113,9 +3095,6 @@
     <t>Desk, writing/work, with ergonomic chair, and electrical outlet</t>
   </si>
   <si>
-    <t>Electrical Outlet</t>
-  </si>
-  <si>
     <t>Iron and Ironing Board</t>
   </si>
   <si>
@@ -3155,15 +3134,9 @@
     <t>Speaker phone</t>
   </si>
   <si>
-    <t>High-Speed Internet</t>
-  </si>
-  <si>
     <t>Complimentary High-Speed Internet</t>
   </si>
   <si>
-    <t>Wireless Internet</t>
-  </si>
-  <si>
     <t>Complimentary Wireless Internet</t>
   </si>
   <si>
@@ -3203,16 +3176,82 @@
     <t>iPod Dock</t>
   </si>
   <si>
-    <t>King Bed</t>
-  </si>
-  <si>
-    <t>Double Bed</t>
-  </si>
-  <si>
     <t>Expanded ala carte menu (for purchase)</t>
   </si>
   <si>
     <t>Dining room</t>
+  </si>
+  <si>
+    <t>id_detail_fasilitas</t>
+  </si>
+  <si>
+    <t>id_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>nama_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>stok_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>harga_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>status_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>id_use_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>jumlah_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3500000</t>
+  </si>
+  <si>
+    <t>PRT607</t>
+  </si>
+  <si>
+    <t>DES906</t>
+  </si>
+  <si>
+    <t>Cable/Satellite TV</t>
+  </si>
+  <si>
+    <t>1 King Bed</t>
+  </si>
+  <si>
+    <t>2 Double Bed</t>
+  </si>
+  <si>
+    <t>All inclusive</t>
+  </si>
+  <si>
+    <t>Chair, with ottoman</t>
+  </si>
+  <si>
+    <t>Double Vanities</t>
+  </si>
+  <si>
+    <t>TV: 2</t>
+  </si>
+  <si>
+    <t>Table with seating for 6</t>
+  </si>
+  <si>
+    <t>Pantry area</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Silverwave</t>
+  </si>
+  <si>
+    <t>Dishes and Glasses</t>
   </si>
 </sst>
 </file>
@@ -3669,7 +3708,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3974,7 +4013,7 @@
         <v>787</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3982,16 +4021,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>838</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3999,16 +4038,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>846</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4016,16 +4055,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>856</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4033,10 +4072,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>856</v>
@@ -4050,16 +4089,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>879</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -4085,7 +4124,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>785</v>
@@ -4094,10 +4133,10 @@
         <v>487</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4105,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C2" s="1">
         <v>36</v>
@@ -4123,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C3" s="1">
         <v>48</v>
@@ -4141,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>401</v>
@@ -4159,7 +4198,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>132</v>
@@ -4177,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>237</v>
@@ -4195,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>203</v>
@@ -4213,7 +4252,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>123</v>
@@ -4231,7 +4270,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>137</v>
@@ -4249,7 +4288,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>138</v>
@@ -4267,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>425</v>
@@ -4285,7 +4324,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>200</v>
@@ -4303,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>205</v>
@@ -4371,7 +4410,7 @@
         <v>794</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4908,13 +4947,13 @@
         <v>897</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4932,16 +4971,16 @@
         <v>898</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="I2" s="1">
         <f>E2*2</f>
@@ -4950,8 +4989,8 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
+      <c r="K2" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4972,13 +5011,13 @@
         <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I15" si="0">E3*2</f>
@@ -4987,8 +5026,8 @@
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="K3" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5003,19 +5042,19 @@
         <v>830</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -5024,8 +5063,8 @@
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
+      <c r="K4" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5043,16 +5082,16 @@
         <v>900</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
@@ -5061,8 +5100,8 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
+      <c r="K5" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5077,19 +5116,19 @@
         <v>838</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="I6" s="1">
         <f>E6*2+479000</f>
@@ -5098,8 +5137,8 @@
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
+      <c r="K6" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5114,29 +5153,29 @@
         <v>843</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>908</v>
+        <v>1055</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>930000</v>
+        <v>2300000</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
+      <c r="K7" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5151,29 +5190,29 @@
         <v>846</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>910</v>
+        <v>1056</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>923</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I8" s="1">
         <f>E8*2+1148000</f>
-        <v>2038000</v>
+        <v>3748000</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
+      <c r="K8" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5191,16 +5230,16 @@
         <v>901</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
@@ -5209,8 +5248,8 @@
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
+      <c r="K9" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5228,16 +5267,16 @@
         <v>902</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="I10" s="1">
         <f>E10*2+948000+70000</f>
@@ -5246,8 +5285,8 @@
       <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
+      <c r="K10" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5265,16 +5304,16 @@
         <v>903</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
@@ -5283,8 +5322,8 @@
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
+      <c r="K11" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5302,16 +5341,16 @@
         <v>904</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
@@ -5320,8 +5359,8 @@
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
+      <c r="K12" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5336,22 +5375,22 @@
         <v>863</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -5375,16 +5414,16 @@
         <v>907</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
@@ -5393,8 +5432,8 @@
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
+      <c r="K14" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5412,16 +5451,16 @@
         <v>906</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
@@ -5430,8 +5469,8 @@
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
+      <c r="K15" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5449,16 +5488,16 @@
         <v>905</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I16" s="1">
         <f>E16*2+406000</f>
@@ -5467,8 +5506,8 @@
       <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="1">
-        <v>1</v>
+      <c r="K16" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5569,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>71</v>
@@ -5551,7 +5590,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>71</v>
@@ -5572,7 +5611,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
@@ -5593,7 +5632,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>71</v>
@@ -5614,7 +5653,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>71</v>
@@ -5635,7 +5674,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>71</v>
@@ -5656,7 +5695,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>71</v>
@@ -5677,7 +5716,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>71</v>
@@ -5698,7 +5737,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>123</v>
@@ -5719,7 +5758,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>123</v>
@@ -5740,7 +5779,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>123</v>
@@ -5761,7 +5800,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>123</v>
@@ -5782,7 +5821,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>123</v>
@@ -5803,7 +5842,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>123</v>
@@ -5824,7 +5863,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>71</v>
@@ -5845,7 +5884,7 @@
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>71</v>
@@ -5866,7 +5905,7 @@
         <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>71</v>
@@ -5887,7 +5926,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>71</v>
@@ -5908,7 +5947,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>71</v>
@@ -5929,7 +5968,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>71</v>
@@ -5950,7 +5989,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>123</v>
@@ -5971,7 +6010,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>123</v>
@@ -5992,7 +6031,7 @@
         <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>123</v>
@@ -6013,7 +6052,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>123</v>
@@ -6034,7 +6073,7 @@
         <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>71</v>
@@ -6055,7 +6094,7 @@
         <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>71</v>
@@ -6076,7 +6115,7 @@
         <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -6097,7 +6136,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
@@ -6118,7 +6157,7 @@
         <v>123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>71</v>
@@ -6139,7 +6178,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>71</v>
@@ -6160,7 +6199,7 @@
         <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>71</v>
@@ -6181,7 +6220,7 @@
         <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>71</v>
@@ -6202,7 +6241,7 @@
         <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>123</v>
@@ -6223,7 +6262,7 @@
         <v>123</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>123</v>
@@ -6244,7 +6283,7 @@
         <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>123</v>
@@ -6265,7 +6304,7 @@
         <v>123</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>123</v>
@@ -6286,7 +6325,7 @@
         <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>123</v>
@@ -6307,7 +6346,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>123</v>
@@ -6328,7 +6367,7 @@
         <v>123</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>71</v>
@@ -6349,7 +6388,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>71</v>
@@ -6370,7 +6409,7 @@
         <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>71</v>
@@ -6391,7 +6430,7 @@
         <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>71</v>
@@ -6412,7 +6451,7 @@
         <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>71</v>
@@ -6433,7 +6472,7 @@
         <v>123</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>71</v>
@@ -6454,7 +6493,7 @@
         <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>123</v>
@@ -6475,7 +6514,7 @@
         <v>123</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>123</v>
@@ -6496,7 +6535,7 @@
         <v>123</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>123</v>
@@ -6517,7 +6556,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>123</v>
@@ -7063,7 +7102,7 @@
         <v>125</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>124</v>
@@ -8449,7 +8488,7 @@
         <v>128</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>128</v>
@@ -8911,7 +8950,7 @@
         <v>130</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>133</v>
@@ -9877,7 +9916,7 @@
         <v>135</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>136</v>
@@ -9898,7 +9937,7 @@
         <v>135</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>136</v>
@@ -9919,7 +9958,7 @@
         <v>135</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>136</v>
@@ -10001,7 +10040,7 @@
         <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10014,8 +10053,8 @@
       <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10028,8 +10067,8 @@
       <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="D3" s="1" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10194,9 +10233,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065E289-0E27-4BFF-95D7-B06D77E6D4DB}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10207,13 +10246,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10221,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -10232,7 +10271,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
@@ -10243,7 +10282,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>71</v>
@@ -10254,7 +10293,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>71</v>
@@ -10265,7 +10304,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>71</v>
@@ -10276,7 +10315,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>71</v>
@@ -10287,7 +10326,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
@@ -10309,7 +10348,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
@@ -10320,7 +10359,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>71</v>
@@ -10331,7 +10370,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>71</v>
@@ -10342,7 +10381,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>71</v>
@@ -10353,7 +10392,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>71</v>
@@ -10364,7 +10403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>71</v>
@@ -10375,7 +10414,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>71</v>
@@ -10386,7 +10425,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>71</v>
@@ -10397,7 +10436,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>71</v>
@@ -10408,7 +10447,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>71</v>
@@ -10419,7 +10458,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>71</v>
@@ -10430,7 +10469,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>71</v>
@@ -10441,7 +10480,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>71</v>
@@ -10452,7 +10491,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>71</v>
@@ -10463,7 +10502,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>71</v>
@@ -10474,7 +10513,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>71</v>
@@ -10485,7 +10524,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>71</v>
@@ -10496,7 +10535,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -10507,7 +10546,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>71</v>
@@ -10518,7 +10557,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>71</v>
@@ -10529,7 +10568,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>71</v>
@@ -10540,7 +10579,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>71</v>
@@ -10551,7 +10590,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>71</v>
@@ -10562,7 +10601,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>71</v>
@@ -10573,7 +10612,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>71</v>
@@ -10584,7 +10623,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>71</v>
@@ -10595,7 +10634,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>71</v>
@@ -10606,7 +10645,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>71</v>
@@ -10617,7 +10656,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>71</v>
@@ -10628,7 +10667,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>71</v>
@@ -10639,7 +10678,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>71</v>
@@ -10650,7 +10689,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>71</v>
@@ -10661,7 +10700,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>71</v>
@@ -10672,7 +10711,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>71</v>
@@ -10683,7 +10722,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>71</v>
@@ -10694,7 +10733,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>71</v>
@@ -10705,7 +10744,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>71</v>
@@ -10716,7 +10755,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>71</v>
@@ -10727,7 +10766,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>71</v>
@@ -10738,7 +10777,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>71</v>
@@ -10749,7 +10788,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>71</v>
@@ -10760,7 +10799,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>71</v>
@@ -10771,7 +10810,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>71</v>
@@ -10782,7 +10821,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>71</v>
@@ -10793,7 +10832,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>71</v>
@@ -10804,7 +10843,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>71</v>
@@ -10815,7 +10854,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>71</v>
@@ -10826,7 +10865,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>71</v>
@@ -10837,7 +10876,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>71</v>
@@ -10848,7 +10887,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>71</v>
@@ -10859,7 +10898,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>71</v>
@@ -10870,7 +10909,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>71</v>
@@ -10881,7 +10920,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>71</v>
@@ -10892,7 +10931,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>71</v>
@@ -10903,7 +10942,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>71</v>
@@ -10914,7 +10953,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>71</v>
@@ -10925,7 +10964,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>71</v>
@@ -10936,7 +10975,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>71</v>
@@ -10947,7 +10986,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>71</v>
@@ -10958,7 +10997,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>71</v>
@@ -10969,7 +11008,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>71</v>
@@ -10980,7 +11019,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>71</v>
@@ -10991,7 +11030,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>71</v>
@@ -11002,7 +11041,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>71</v>
@@ -11013,7 +11052,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>71</v>
@@ -11024,7 +11063,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>71</v>
@@ -11035,7 +11074,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>71</v>
@@ -11046,7 +11085,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>71</v>
@@ -11057,7 +11096,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>71</v>
@@ -11068,7 +11107,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>71</v>
@@ -11079,9 +11118,86 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11094,173 +11210,5453 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FA0508-DA61-4F53-A369-F27C249D383B}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:C494"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>1045</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>488</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>441</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>442</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>444</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>447</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>448</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>449</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>450</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>451</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>452</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>454</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>455</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>456</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>457</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>458</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>459</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>460</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>461</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>462</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>464</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>468</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>469</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>470</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>471</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>472</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>473</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>474</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>475</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>476</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>477</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>478</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>479</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>480</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>481</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>482</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>483</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>484</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>485</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>486</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>487</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>488</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>490</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -11268,43 +16664,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0806AFB0-FA35-43EE-9218-27F9FB3F4DBB}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>1046</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>488</v>
+        <v>1047</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>489</v>
+        <v>1048</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>490</v>
+        <v>1049</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11312,9 +16702,8 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11322,9 +16711,8 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11332,9 +16720,8 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11342,9 +16729,8 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11352,9 +16738,8 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11362,9 +16747,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11372,9 +16756,8 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11382,9 +16765,8 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11392,9 +16774,8 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11402,9 +16783,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11412,9 +16792,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11422,9 +16801,8 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11432,7 +16810,6 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11442,43 +16819,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2F4E68-013A-41D5-9B2F-25734CDF84FE}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>487</v>
+        <v>1051</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>488</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>489</v>
+        <v>787</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>490</v>
+        <v>1046</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11486,9 +16857,8 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11496,9 +16866,8 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11506,9 +16875,8 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11516,9 +16884,8 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11526,9 +16893,8 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11536,9 +16902,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11546,9 +16911,8 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11556,9 +16920,8 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11566,9 +16929,8 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11576,9 +16938,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11586,9 +16947,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11596,9 +16956,8 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11606,7 +16965,6 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15494,7 +20852,7 @@
         <v>493</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B4235-2C8B-45B6-9E2D-95087B3C6B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29701EA8-134C-47A2-8A82-B53237B611F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
   <sheets>
     <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="1085">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -3252,6 +3252,54 @@
   </si>
   <si>
     <t>Dishes and Glasses</t>
+  </si>
+  <si>
+    <t>Blanket</t>
+  </si>
+  <si>
+    <t>Thick Blanket</t>
+  </si>
+  <si>
+    <t>Towel</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Bolster</t>
+  </si>
+  <si>
+    <t>Tissue Pack</t>
+  </si>
+  <si>
+    <t>Electrical Socket</t>
+  </si>
+  <si>
+    <t>First Aid Kit</t>
+  </si>
+  <si>
+    <t>Rollaway Bed</t>
+  </si>
+  <si>
+    <t>650000</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>278000</t>
+  </si>
+  <si>
+    <t>subtotal_extra_fasilitas</t>
+  </si>
+  <si>
+    <t>248</t>
   </si>
 </sst>
 </file>
@@ -4904,7 +4952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5020,7 +5068,7 @@
         <v>938</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I15" si="0">E3*2</f>
+        <f t="shared" ref="I3:I12" si="0">E3*2</f>
         <v>2600000</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -5426,8 +5474,8 @@
         <v>963</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>9100000</v>
+        <f>E14*2+338000+248000</f>
+        <v>9686000</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -5463,8 +5511,8 @@
         <v>963</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>9100000</v>
+        <f>E15*2+50000</f>
+        <v>9150000</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
@@ -5500,8 +5548,8 @@
         <v>963</v>
       </c>
       <c r="I16" s="1">
-        <f>E16*2+406000</f>
-        <v>9506000</v>
+        <f>E16*2+406000+40000+278000</f>
+        <v>9824000</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -16664,9 +16712,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0806AFB0-FA35-43EE-9218-27F9FB3F4DBB}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16698,118 +16746,171 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16819,7 +16920,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2F4E68-013A-41D5-9B2F-25734CDF84FE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16830,9 +16931,10 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1051</v>
       </c>
@@ -16848,123 +16950,109 @@
       <c r="E1" s="3" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1">
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1">
+        <v>278000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29701EA8-134C-47A2-8A82-B53237B611F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9E156-87AD-470F-9EB6-1C80312DA0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1091">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -3300,6 +3300,24 @@
   </si>
   <si>
     <t>248</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>jadwal_check_in</t>
+  </si>
+  <si>
+    <t>jadwal_check_out</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
   </si>
 </sst>
 </file>
@@ -4950,7 +4968,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4962,14 +4980,16 @@
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>892</v>
       </c>
@@ -4989,22 +5009,28 @@
         <v>895</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5030,18 +5056,24 @@
       <c r="H2" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="K2" s="1">
         <f>E2*2</f>
         <v>3600000</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5062,23 +5094,29 @@
         <v>924</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>937</v>
+        <v>1085</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I12" si="0">E3*2</f>
+      <c r="I3" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="0">E3*2</f>
         <v>2600000</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5104,18 +5142,24 @@
       <c r="H4" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5141,18 +5185,24 @@
       <c r="H5" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>2900000</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5173,23 +5223,29 @@
         <v>929</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="K6" s="1">
         <f>E6*2+479000</f>
         <v>2739000</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5215,18 +5271,24 @@
       <c r="H7" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>2300000</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5250,20 +5312,26 @@
         <v>933</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <f>E8*2+1148000</f>
         <v>3748000</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5289,18 +5357,24 @@
       <c r="H9" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
         <v>1900000</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5326,18 +5400,24 @@
       <c r="H10" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="K10" s="1">
         <f>E10*2+948000+70000</f>
         <v>3318000</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5363,18 +5443,24 @@
       <c r="H11" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
         <v>1650000</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5398,20 +5484,26 @@
         <v>941</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="0"/>
         <v>1610000</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5432,22 +5524,28 @@
         <v>931</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>963</v>
+        <v>1087</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>963</v>
+        <v>1086</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>963</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5471,20 +5569,26 @@
         <v>935</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <f>E14*2+338000+248000</f>
         <v>9686000</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5508,20 +5612,26 @@
         <v>935</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <f>E15*2+50000</f>
         <v>9150000</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5545,16 +5655,22 @@
         <v>935</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <f>E16*2+406000+40000+278000</f>
         <v>9824000</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>123</v>
       </c>
     </row>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9E156-87AD-470F-9EB6-1C80312DA0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B5CFA2-EBF4-440D-AB52-0182015DE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="1093">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -3318,6 +3318,12 @@
   </si>
   <si>
     <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>total_terjual</t>
+  </si>
+  <si>
+    <t>total_penyewaan</t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3397,9 +3403,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4492,7 +4495,7 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>795</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5722,8 +5725,8 @@
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>CONCATENATE("SUK", C2)</f>
+      <c r="B2" s="1" t="str">
+        <f t="shared" ref="B2:B9" si="0">CONCATENATE("SUK", C2)</f>
         <v>SUK101</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5733,7 +5736,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>71</v>
@@ -5743,8 +5746,8 @@
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B9" si="0">CONCATENATE("SUK", C3)</f>
+      <c r="B3" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>SUK102</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5754,7 +5757,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>71</v>
@@ -5764,7 +5767,7 @@
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUK103</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
@@ -5785,7 +5788,7 @@
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUK104</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>71</v>
@@ -5806,7 +5809,7 @@
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUK105</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>71</v>
@@ -5827,7 +5830,7 @@
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUK106</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>71</v>
@@ -5848,7 +5851,7 @@
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUK107</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>71</v>
@@ -5869,7 +5872,7 @@
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SUK108</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>71</v>
@@ -5890,8 +5893,8 @@
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="4" t="str">
-        <f>CONCATENATE("SUT", C10)</f>
+      <c r="B10" s="1" t="str">
+        <f t="shared" ref="B10:B15" si="1">CONCATENATE("SUT", C10)</f>
         <v>SUT109</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5901,7 +5904,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>123</v>
@@ -5911,8 +5914,8 @@
       <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="4" t="str">
-        <f t="shared" ref="B11:B15" si="1">CONCATENATE("SUT", C11)</f>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>SUT110</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5922,7 +5925,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>123</v>
@@ -5932,7 +5935,7 @@
       <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SUT111</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>123</v>
@@ -5953,7 +5956,7 @@
       <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SUT112</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>123</v>
@@ -5974,7 +5977,7 @@
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SUT113</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>123</v>
@@ -5995,7 +5998,7 @@
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>SUT114</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>123</v>
@@ -6016,7 +6019,7 @@
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="1" t="str">
         <f t="shared" ref="B16:B21" si="2">CONCATENATE("SUK", C16)</f>
         <v>SUK115</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>71</v>
@@ -6037,7 +6040,7 @@
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>SUK116</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>71</v>
@@ -6058,7 +6061,7 @@
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>SUK117</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>71</v>
@@ -6079,7 +6082,7 @@
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>SUK118</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>71</v>
@@ -6100,7 +6103,7 @@
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>SUK119</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>71</v>
@@ -6121,7 +6124,7 @@
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>SUK120</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>71</v>
@@ -6142,8 +6145,8 @@
       <c r="A22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="4" t="str">
-        <f t="shared" ref="B22:B25" si="3">CONCATENATE("SUT", C22)</f>
+      <c r="B22" s="1" t="str">
+        <f>CONCATENATE("SUT", C22)</f>
         <v>SUT121</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -6153,7 +6156,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>123</v>
@@ -6163,8 +6166,8 @@
       <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="B23" s="1" t="str">
+        <f>CONCATENATE("SUT", C23)</f>
         <v>SUT122</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6174,7 +6177,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>123</v>
@@ -6184,8 +6187,8 @@
       <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="B24" s="1" t="str">
+        <f>CONCATENATE("SUT", C24)</f>
         <v>SUT123</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -6195,7 +6198,7 @@
         <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>123</v>
@@ -6205,8 +6208,8 @@
       <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="B25" s="1" t="str">
+        <f>CONCATENATE("SUT", C25)</f>
         <v>SUT124</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -6216,7 +6219,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>123</v>
@@ -6226,8 +6229,8 @@
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="4" t="str">
-        <f>CONCATENATE("SUK", C26)</f>
+      <c r="B26" s="1" t="str">
+        <f t="shared" ref="B26:B33" si="3">CONCATENATE("SUK", C26)</f>
         <v>SUK201</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -6237,7 +6240,7 @@
         <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>71</v>
@@ -6247,8 +6250,8 @@
       <c r="A27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="4" t="str">
-        <f t="shared" ref="B27:B33" si="4">CONCATENATE("SUK", C27)</f>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>SUK202</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -6258,7 +6261,7 @@
         <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>71</v>
@@ -6268,8 +6271,8 @@
       <c r="A28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>SUK203</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -6279,7 +6282,7 @@
         <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -6289,8 +6292,8 @@
       <c r="A29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>SUK204</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -6300,7 +6303,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
@@ -6310,8 +6313,8 @@
       <c r="A30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>SUK205</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -6321,7 +6324,7 @@
         <v>123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>71</v>
@@ -6331,8 +6334,8 @@
       <c r="A31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>SUK206</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6342,7 +6345,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>71</v>
@@ -6352,8 +6355,8 @@
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>SUK207</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -6363,7 +6366,7 @@
         <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>71</v>
@@ -6373,8 +6376,8 @@
       <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>SUK208</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6384,7 +6387,7 @@
         <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>71</v>
@@ -6394,8 +6397,8 @@
       <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="4" t="str">
-        <f>CONCATENATE("SUT", C34)</f>
+      <c r="B34" s="1" t="str">
+        <f t="shared" ref="B34:B39" si="4">CONCATENATE("SUT", C34)</f>
         <v>SUT209</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -6405,7 +6408,7 @@
         <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>123</v>
@@ -6415,8 +6418,8 @@
       <c r="A35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="4" t="str">
-        <f t="shared" ref="B35:B39" si="5">CONCATENATE("SUT", C35)</f>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>SUT210</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6426,7 +6429,7 @@
         <v>123</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>123</v>
@@ -6436,8 +6439,8 @@
       <c r="A36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>SUT211</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -6447,7 +6450,7 @@
         <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>123</v>
@@ -6457,8 +6460,8 @@
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>SUT212</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6468,7 +6471,7 @@
         <v>123</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>123</v>
@@ -6478,8 +6481,8 @@
       <c r="A38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>SUT213</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -6489,7 +6492,7 @@
         <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>123</v>
@@ -6499,8 +6502,8 @@
       <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>SUT214</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6510,7 +6513,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>123</v>
@@ -6520,8 +6523,8 @@
       <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="4" t="str">
-        <f t="shared" ref="B40:B45" si="6">CONCATENATE("SUK", C40)</f>
+      <c r="B40" s="1" t="str">
+        <f t="shared" ref="B40:B45" si="5">CONCATENATE("SUK", C40)</f>
         <v>SUK215</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -6531,7 +6534,7 @@
         <v>123</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>71</v>
@@ -6541,8 +6544,8 @@
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>SUK216</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6552,7 +6555,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>71</v>
@@ -6562,8 +6565,8 @@
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>SUK217</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -6573,7 +6576,7 @@
         <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>71</v>
@@ -6583,8 +6586,8 @@
       <c r="A43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>SUK218</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6594,7 +6597,7 @@
         <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>71</v>
@@ -6604,8 +6607,8 @@
       <c r="A44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>SUK219</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -6615,7 +6618,7 @@
         <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>71</v>
@@ -6625,8 +6628,8 @@
       <c r="A45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>SUK220</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6636,7 +6639,7 @@
         <v>123</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>71</v>
@@ -6646,8 +6649,8 @@
       <c r="A46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="4" t="str">
-        <f t="shared" ref="B46:B49" si="7">CONCATENATE("SUT", C46)</f>
+      <c r="B46" s="1" t="str">
+        <f>CONCATENATE("SUT", C46)</f>
         <v>SUT221</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -6657,7 +6660,7 @@
         <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>123</v>
@@ -6667,8 +6670,8 @@
       <c r="A47" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="B47" s="1" t="str">
+        <f>CONCATENATE("SUT", C47)</f>
         <v>SUT222</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -6678,7 +6681,7 @@
         <v>123</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>123</v>
@@ -6688,8 +6691,8 @@
       <c r="A48" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="B48" s="1" t="str">
+        <f>CONCATENATE("SUT", C48)</f>
         <v>SUT223</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -6699,7 +6702,7 @@
         <v>123</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>123</v>
@@ -6709,8 +6712,8 @@
       <c r="A49" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="B49" s="1" t="str">
+        <f>CONCATENATE("SUT", C49)</f>
         <v>SUT224</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -6720,7 +6723,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>123</v>
@@ -6730,8 +6733,8 @@
       <c r="A50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="4" t="str">
-        <f>CONCATENATE("DEK", C50)</f>
+      <c r="B50" s="1" t="str">
+        <f t="shared" ref="B50:B57" si="6">CONCATENATE("DEK", C50)</f>
         <v>DEK301</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -6751,8 +6754,8 @@
       <c r="A51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="4" t="str">
-        <f t="shared" ref="B51:B57" si="8">CONCATENATE("DEK", C51)</f>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DEK302</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -6772,8 +6775,8 @@
       <c r="A52" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DEK303</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -6793,8 +6796,8 @@
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DEK304</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -6814,8 +6817,8 @@
       <c r="A54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DEK305</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -6835,8 +6838,8 @@
       <c r="A55" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DEK306</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -6856,8 +6859,8 @@
       <c r="A56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DEK307</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -6877,8 +6880,8 @@
       <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>DEK308</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -6898,8 +6901,8 @@
       <c r="A58" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B58" s="4" t="str">
-        <f>CONCATENATE("DET", C58)</f>
+      <c r="B58" s="1" t="str">
+        <f t="shared" ref="B58:B67" si="7">CONCATENATE("DET", C58)</f>
         <v>DET309</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -6919,8 +6922,8 @@
       <c r="A59" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="4" t="str">
-        <f t="shared" ref="B59:B67" si="9">CONCATENATE("DET", C59)</f>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET310</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -6940,8 +6943,8 @@
       <c r="A60" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B60" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET311</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -6961,8 +6964,8 @@
       <c r="A61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET312</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -6982,8 +6985,8 @@
       <c r="A62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B62" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET313</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -7003,8 +7006,8 @@
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B63" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET314</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -7024,8 +7027,8 @@
       <c r="A64" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET315</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -7045,8 +7048,8 @@
       <c r="A65" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET316</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -7066,8 +7069,8 @@
       <c r="A66" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B66" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET317</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -7087,8 +7090,8 @@
       <c r="A67" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B67" s="4" t="str">
-        <f t="shared" si="9"/>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>DET318</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -7108,8 +7111,8 @@
       <c r="A68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B68" s="4" t="str">
-        <f t="shared" ref="B68:B69" si="10">CONCATENATE("DEK", C68)</f>
+      <c r="B68" s="1" t="str">
+        <f t="shared" ref="B68:B77" si="8">CONCATENATE("DEK", C68)</f>
         <v>DEK319</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -7129,8 +7132,8 @@
       <c r="A69" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK320</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -7150,8 +7153,8 @@
       <c r="A70" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="4" t="str">
-        <f>CONCATENATE("DEK", C70)</f>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK401</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -7171,8 +7174,8 @@
       <c r="A71" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="4" t="str">
-        <f t="shared" ref="B71:B77" si="11">CONCATENATE("DEK", C71)</f>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK402</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -7192,8 +7195,8 @@
       <c r="A72" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B72" s="4" t="str">
-        <f t="shared" si="11"/>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK403</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -7213,8 +7216,8 @@
       <c r="A73" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="4" t="str">
-        <f t="shared" si="11"/>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK404</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -7234,8 +7237,8 @@
       <c r="A74" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B74" s="4" t="str">
-        <f t="shared" si="11"/>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK405</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -7255,8 +7258,8 @@
       <c r="A75" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B75" s="4" t="str">
-        <f t="shared" si="11"/>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK406</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -7266,7 +7269,7 @@
         <v>125</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>124</v>
@@ -7276,8 +7279,8 @@
       <c r="A76" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B76" s="4" t="str">
-        <f t="shared" si="11"/>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK407</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -7297,8 +7300,8 @@
       <c r="A77" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B77" s="4" t="str">
-        <f t="shared" si="11"/>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>DEK408</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -7318,8 +7321,8 @@
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B78" s="4" t="str">
-        <f>CONCATENATE("DET", C78)</f>
+      <c r="B78" s="1" t="str">
+        <f t="shared" ref="B78:B87" si="9">CONCATENATE("DET", C78)</f>
         <v>DET409</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -7339,8 +7342,8 @@
       <c r="A79" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B79" s="4" t="str">
-        <f t="shared" ref="B79:B87" si="12">CONCATENATE("DET", C79)</f>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET410</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -7360,8 +7363,8 @@
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET411</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -7381,8 +7384,8 @@
       <c r="A81" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET412</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -7402,8 +7405,8 @@
       <c r="A82" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B82" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET413</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -7423,8 +7426,8 @@
       <c r="A83" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B83" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET414</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -7444,8 +7447,8 @@
       <c r="A84" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B84" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET415</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -7465,8 +7468,8 @@
       <c r="A85" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B85" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B85" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET416</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -7486,8 +7489,8 @@
       <c r="A86" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B86" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET417</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -7507,8 +7510,8 @@
       <c r="A87" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B87" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>DET418</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -7528,8 +7531,8 @@
       <c r="A88" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B88" s="4" t="str">
-        <f t="shared" ref="B88:B89" si="13">CONCATENATE("DEK", C88)</f>
+      <c r="B88" s="1" t="str">
+        <f>CONCATENATE("DEK", C88)</f>
         <v>DEK419</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -7549,8 +7552,8 @@
       <c r="A89" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B89" s="4" t="str">
-        <f t="shared" si="13"/>
+      <c r="B89" s="1" t="str">
+        <f>CONCATENATE("DEK", C89)</f>
         <v>DEK420</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -7570,7 +7573,7 @@
       <c r="A90" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B90" s="4" t="str">
+      <c r="B90" s="1" t="str">
         <f>CONCATENATE("PRK", C90)</f>
         <v>PRK501</v>
       </c>
@@ -7591,8 +7594,8 @@
       <c r="A91" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B91" s="4" t="str">
-        <f t="shared" ref="B91:B93" si="14">CONCATENATE("PRK", C91)</f>
+      <c r="B91" s="1" t="str">
+        <f>CONCATENATE("PRK", C91)</f>
         <v>PRK502</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -7612,8 +7615,8 @@
       <c r="A92" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B92" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="B92" s="1" t="str">
+        <f>CONCATENATE("PRK", C92)</f>
         <v>PRK503</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -7633,8 +7636,8 @@
       <c r="A93" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B93" s="4" t="str">
-        <f t="shared" si="14"/>
+      <c r="B93" s="1" t="str">
+        <f>CONCATENATE("PRK", C93)</f>
         <v>PRK504</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -7654,8 +7657,8 @@
       <c r="A94" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B94" s="4" t="str">
-        <f>CONCATENATE("PRT", C94)</f>
+      <c r="B94" s="1" t="str">
+        <f t="shared" ref="B94:B99" si="10">CONCATENATE("PRT", C94)</f>
         <v>PRT505</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -7675,8 +7678,8 @@
       <c r="A95" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B95" s="4" t="str">
-        <f t="shared" ref="B95:B99" si="15">CONCATENATE("PRT", C95)</f>
+      <c r="B95" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>PRT506</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -7696,8 +7699,8 @@
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B96" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="B96" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>PRT507</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -7717,8 +7720,8 @@
       <c r="A97" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B97" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="B97" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>PRT508</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -7738,8 +7741,8 @@
       <c r="A98" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B98" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="B98" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>PRT509</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -7759,8 +7762,8 @@
       <c r="A99" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B99" s="4" t="str">
-        <f t="shared" si="15"/>
+      <c r="B99" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>PRT510</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -7780,8 +7783,8 @@
       <c r="A100" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B100" s="4" t="str">
-        <f t="shared" ref="B100:B103" si="16">CONCATENATE("PRK", C100)</f>
+      <c r="B100" s="1" t="str">
+        <f>CONCATENATE("PRK", C100)</f>
         <v>PRK511</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -7801,8 +7804,8 @@
       <c r="A101" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B101" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="B101" s="1" t="str">
+        <f>CONCATENATE("PRK", C101)</f>
         <v>PRK512</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -7822,8 +7825,8 @@
       <c r="A102" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="B102" s="1" t="str">
+        <f>CONCATENATE("PRK", C102)</f>
         <v>PRK513</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -7843,8 +7846,8 @@
       <c r="A103" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="4" t="str">
-        <f t="shared" si="16"/>
+      <c r="B103" s="1" t="str">
+        <f>CONCATENATE("PRK", C103)</f>
         <v>PRK514</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -7864,8 +7867,8 @@
       <c r="A104" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="4" t="str">
-        <f t="shared" ref="B104:B107" si="17">CONCATENATE("PRT", C104)</f>
+      <c r="B104" s="1" t="str">
+        <f>CONCATENATE("PRT", C104)</f>
         <v>PRT515</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -7885,8 +7888,8 @@
       <c r="A105" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="4" t="str">
-        <f t="shared" si="17"/>
+      <c r="B105" s="1" t="str">
+        <f>CONCATENATE("PRT", C105)</f>
         <v>PRT516</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -7906,8 +7909,8 @@
       <c r="A106" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="4" t="str">
-        <f t="shared" si="17"/>
+      <c r="B106" s="1" t="str">
+        <f>CONCATENATE("PRT", C106)</f>
         <v>PRT517</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -7927,8 +7930,8 @@
       <c r="A107" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B107" s="4" t="str">
-        <f t="shared" si="17"/>
+      <c r="B107" s="1" t="str">
+        <f>CONCATENATE("PRT", C107)</f>
         <v>PRT518</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -7948,7 +7951,7 @@
       <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B108" s="4" t="str">
+      <c r="B108" s="1" t="str">
         <f>CONCATENATE("PRK", C108)</f>
         <v>PRK601</v>
       </c>
@@ -7969,8 +7972,8 @@
       <c r="A109" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B109" s="4" t="str">
-        <f t="shared" ref="B109:B111" si="18">CONCATENATE("PRK", C109)</f>
+      <c r="B109" s="1" t="str">
+        <f>CONCATENATE("PRK", C109)</f>
         <v>PRK602</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -7990,8 +7993,8 @@
       <c r="A110" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B110" s="4" t="str">
-        <f t="shared" si="18"/>
+      <c r="B110" s="1" t="str">
+        <f>CONCATENATE("PRK", C110)</f>
         <v>PRK603</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -8011,8 +8014,8 @@
       <c r="A111" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B111" s="4" t="str">
-        <f t="shared" si="18"/>
+      <c r="B111" s="1" t="str">
+        <f>CONCATENATE("PRK", C111)</f>
         <v>PRK604</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -8032,8 +8035,8 @@
       <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B112" s="4" t="str">
-        <f>CONCATENATE("PRT", C112)</f>
+      <c r="B112" s="1" t="str">
+        <f t="shared" ref="B112:B117" si="11">CONCATENATE("PRT", C112)</f>
         <v>PRT605</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -8053,8 +8056,8 @@
       <c r="A113" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B113" s="4" t="str">
-        <f t="shared" ref="B113:B117" si="19">CONCATENATE("PRT", C113)</f>
+      <c r="B113" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>PRT606</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -8074,8 +8077,8 @@
       <c r="A114" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B114" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="B114" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>PRT607</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -8095,8 +8098,8 @@
       <c r="A115" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="B115" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>PRT608</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -8116,8 +8119,8 @@
       <c r="A116" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B116" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="B116" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>PRT609</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -8137,8 +8140,8 @@
       <c r="A117" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B117" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="B117" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>PRT610</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -8158,8 +8161,8 @@
       <c r="A118" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B118" s="4" t="str">
-        <f t="shared" ref="B118:B121" si="20">CONCATENATE("PRK", C118)</f>
+      <c r="B118" s="1" t="str">
+        <f>CONCATENATE("PRK", C118)</f>
         <v>PRK611</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -8179,8 +8182,8 @@
       <c r="A119" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="4" t="str">
-        <f t="shared" si="20"/>
+      <c r="B119" s="1" t="str">
+        <f>CONCATENATE("PRK", C119)</f>
         <v>PRK612</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -8200,8 +8203,8 @@
       <c r="A120" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="4" t="str">
-        <f t="shared" si="20"/>
+      <c r="B120" s="1" t="str">
+        <f>CONCATENATE("PRK", C120)</f>
         <v>PRK613</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -8221,8 +8224,8 @@
       <c r="A121" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B121" s="4" t="str">
-        <f t="shared" si="20"/>
+      <c r="B121" s="1" t="str">
+        <f>CONCATENATE("PRK", C121)</f>
         <v>PRK614</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -8242,8 +8245,8 @@
       <c r="A122" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B122" s="4" t="str">
-        <f t="shared" ref="B122:B125" si="21">CONCATENATE("PRT", C122)</f>
+      <c r="B122" s="1" t="str">
+        <f>CONCATENATE("PRT", C122)</f>
         <v>PRT615</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -8263,8 +8266,8 @@
       <c r="A123" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B123" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="B123" s="1" t="str">
+        <f>CONCATENATE("PRT", C123)</f>
         <v>PRT616</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -8284,8 +8287,8 @@
       <c r="A124" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="B124" s="1" t="str">
+        <f>CONCATENATE("PRT", C124)</f>
         <v>PRT617</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -8305,8 +8308,8 @@
       <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="B125" s="1" t="str">
+        <f>CONCATENATE("PRT", C125)</f>
         <v>PRT618</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -8326,8 +8329,8 @@
       <c r="A126" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B126" s="4" t="str">
-        <f>CONCATENATE("CLK", C126)</f>
+      <c r="B126" s="1" t="str">
+        <f t="shared" ref="B126:B133" si="12">CONCATENATE("CLK", C126)</f>
         <v>CLK701</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -8347,8 +8350,8 @@
       <c r="A127" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B127" s="4" t="str">
-        <f t="shared" ref="B127:B133" si="22">CONCATENATE("CLK", C127)</f>
+      <c r="B127" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CLK702</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -8368,8 +8371,8 @@
       <c r="A128" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B128" s="4" t="str">
-        <f t="shared" si="22"/>
+      <c r="B128" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CLK703</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -8389,8 +8392,8 @@
       <c r="A129" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B129" s="4" t="str">
-        <f t="shared" si="22"/>
+      <c r="B129" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CLK704</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -8410,8 +8413,8 @@
       <c r="A130" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B130" s="4" t="str">
-        <f t="shared" si="22"/>
+      <c r="B130" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CLK705</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -8431,8 +8434,8 @@
       <c r="A131" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B131" s="4" t="str">
-        <f t="shared" si="22"/>
+      <c r="B131" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CLK706</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -8452,8 +8455,8 @@
       <c r="A132" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B132" s="4" t="str">
-        <f t="shared" si="22"/>
+      <c r="B132" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CLK707</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -8473,8 +8476,8 @@
       <c r="A133" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B133" s="4" t="str">
-        <f t="shared" si="22"/>
+      <c r="B133" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>CLK708</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -8494,8 +8497,8 @@
       <c r="A134" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B134" s="4" t="str">
-        <f>CONCATENATE("CLT", C134)</f>
+      <c r="B134" s="1" t="str">
+        <f t="shared" ref="B134:B139" si="13">CONCATENATE("CLT", C134)</f>
         <v>CLT709</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -8515,8 +8518,8 @@
       <c r="A135" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B135" s="4" t="str">
-        <f t="shared" ref="B135:B139" si="23">CONCATENATE("CLT", C135)</f>
+      <c r="B135" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>CLT710</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -8536,8 +8539,8 @@
       <c r="A136" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B136" s="4" t="str">
-        <f t="shared" si="23"/>
+      <c r="B136" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>CLT711</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -8557,8 +8560,8 @@
       <c r="A137" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B137" s="4" t="str">
-        <f t="shared" si="23"/>
+      <c r="B137" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>CLT712</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -8578,8 +8581,8 @@
       <c r="A138" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B138" s="4" t="str">
-        <f t="shared" si="23"/>
+      <c r="B138" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>CLT713</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -8599,8 +8602,8 @@
       <c r="A139" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B139" s="4" t="str">
-        <f t="shared" si="23"/>
+      <c r="B139" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>CLT714</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -8620,8 +8623,8 @@
       <c r="A140" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B140" s="4" t="str">
-        <f t="shared" ref="B140:B141" si="24">CONCATENATE("CLK", C140)</f>
+      <c r="B140" s="1" t="str">
+        <f>CONCATENATE("CLK", C140)</f>
         <v>CLK715</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -8641,8 +8644,8 @@
       <c r="A141" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B141" s="4" t="str">
-        <f t="shared" si="24"/>
+      <c r="B141" s="1" t="str">
+        <f>CONCATENATE("CLK", C141)</f>
         <v>CLK716</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -8662,8 +8665,8 @@
       <c r="A142" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B142" s="4" t="str">
-        <f t="shared" ref="B142:B143" si="25">CONCATENATE("CLT", C142)</f>
+      <c r="B142" s="1" t="str">
+        <f>CONCATENATE("CLT", C142)</f>
         <v>CLT717</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -8683,8 +8686,8 @@
       <c r="A143" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B143" s="4" t="str">
-        <f t="shared" si="25"/>
+      <c r="B143" s="1" t="str">
+        <f>CONCATENATE("CLT", C143)</f>
         <v>CLT718</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -8704,8 +8707,8 @@
       <c r="A144" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B144" s="4" t="str">
-        <f>CONCATENATE("JUS", C144)</f>
+      <c r="B144" s="1" t="str">
+        <f t="shared" ref="B144:B157" si="14">CONCATENATE("JUS", C144)</f>
         <v>JUS801</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -8725,8 +8728,8 @@
       <c r="A145" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B145" s="4" t="str">
-        <f t="shared" ref="B145:B157" si="26">CONCATENATE("JUS", C145)</f>
+      <c r="B145" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS802</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -8746,8 +8749,8 @@
       <c r="A146" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B146" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B146" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS803</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -8767,8 +8770,8 @@
       <c r="A147" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B147" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B147" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS804</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -8788,8 +8791,8 @@
       <c r="A148" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B148" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B148" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS805</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -8809,8 +8812,8 @@
       <c r="A149" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B149" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B149" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS806</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -8830,8 +8833,8 @@
       <c r="A150" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B150" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B150" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS807</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -8851,8 +8854,8 @@
       <c r="A151" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B151" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B151" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS808</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -8872,8 +8875,8 @@
       <c r="A152" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B152" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B152" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS809</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -8893,8 +8896,8 @@
       <c r="A153" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B153" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B153" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS810</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -8914,8 +8917,8 @@
       <c r="A154" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B154" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B154" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS811</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -8935,8 +8938,8 @@
       <c r="A155" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B155" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B155" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS812</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -8956,8 +8959,8 @@
       <c r="A156" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B156" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B156" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS813</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -8977,8 +8980,8 @@
       <c r="A157" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B157" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B157" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>JUS814</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -8998,8 +9001,8 @@
       <c r="A158" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B158" s="4" t="str">
-        <f>CONCATENATE("DES", C158)</f>
+      <c r="B158" s="1" t="str">
+        <f t="shared" ref="B158:B171" si="15">CONCATENATE("DES", C158)</f>
         <v>DES901</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -9019,8 +9022,8 @@
       <c r="A159" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B159" s="4" t="str">
-        <f t="shared" ref="B159:B171" si="27">CONCATENATE("DES", C159)</f>
+      <c r="B159" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES902</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -9040,8 +9043,8 @@
       <c r="A160" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B160" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B160" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES903</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -9061,8 +9064,8 @@
       <c r="A161" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B161" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B161" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES904</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -9082,8 +9085,8 @@
       <c r="A162" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B162" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B162" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES905</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -9103,8 +9106,8 @@
       <c r="A163" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B163" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B163" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES906</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -9124,8 +9127,8 @@
       <c r="A164" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B164" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B164" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES907</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -9145,8 +9148,8 @@
       <c r="A165" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B165" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B165" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES908</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -9166,8 +9169,8 @@
       <c r="A166" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B166" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B166" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES909</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -9187,8 +9190,8 @@
       <c r="A167" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B167" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B167" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES910</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -9208,8 +9211,8 @@
       <c r="A168" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B168" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B168" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES911</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -9229,8 +9232,8 @@
       <c r="A169" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B169" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B169" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES912</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -9250,8 +9253,8 @@
       <c r="A170" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B170" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B170" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES913</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -9271,8 +9274,8 @@
       <c r="A171" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B171" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B171" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>DES914</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -9292,8 +9295,8 @@
       <c r="A172" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B172" s="4" t="str">
-        <f>CONCATENATE("EXS", C172)</f>
+      <c r="B172" s="1" t="str">
+        <f t="shared" ref="B172:B185" si="16">CONCATENATE("EXS", C172)</f>
         <v>EXS1001</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -9313,8 +9316,8 @@
       <c r="A173" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B173" s="4" t="str">
-        <f t="shared" ref="B173:B185" si="28">CONCATENATE("EXS", C173)</f>
+      <c r="B173" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1002</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -9334,8 +9337,8 @@
       <c r="A174" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B174" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B174" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1003</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -9355,8 +9358,8 @@
       <c r="A175" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B175" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B175" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1004</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -9376,8 +9379,8 @@
       <c r="A176" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B176" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B176" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1005</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -9397,8 +9400,8 @@
       <c r="A177" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B177" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B177" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1006</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -9418,8 +9421,8 @@
       <c r="A178" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B178" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B178" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1007</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -9439,8 +9442,8 @@
       <c r="A179" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B179" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B179" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1008</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -9460,8 +9463,8 @@
       <c r="A180" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B180" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B180" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1009</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -9481,8 +9484,8 @@
       <c r="A181" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B181" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B181" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1010</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -9502,8 +9505,8 @@
       <c r="A182" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B182" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B182" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1011</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -9523,8 +9526,8 @@
       <c r="A183" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B183" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B183" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1012</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -9544,8 +9547,8 @@
       <c r="A184" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B184" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B184" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1013</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -9565,8 +9568,8 @@
       <c r="A185" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B185" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B185" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>EXS1014</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -9586,8 +9589,8 @@
       <c r="A186" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B186" s="4" t="str">
-        <f>CONCATENATE("ROS", C186)</f>
+      <c r="B186" s="1" t="str">
+        <f t="shared" ref="B186:B199" si="17">CONCATENATE("ROS", C186)</f>
         <v>ROS1101</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -9607,8 +9610,8 @@
       <c r="A187" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B187" s="4" t="str">
-        <f t="shared" ref="B187:B199" si="29">CONCATENATE("ROS", C187)</f>
+      <c r="B187" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1102</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -9628,8 +9631,8 @@
       <c r="A188" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B188" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B188" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1103</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -9649,8 +9652,8 @@
       <c r="A189" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B189" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B189" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1104</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -9670,8 +9673,8 @@
       <c r="A190" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B190" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B190" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1105</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -9691,8 +9694,8 @@
       <c r="A191" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B191" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B191" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1106</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -9712,8 +9715,8 @@
       <c r="A192" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B192" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B192" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1107</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -9733,8 +9736,8 @@
       <c r="A193" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B193" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B193" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1108</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -9754,8 +9757,8 @@
       <c r="A194" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B194" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B194" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1109</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -9775,8 +9778,8 @@
       <c r="A195" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B195" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B195" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1110</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -9796,8 +9799,8 @@
       <c r="A196" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B196" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B196" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1111</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -9817,8 +9820,8 @@
       <c r="A197" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B197" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B197" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1112</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -9838,8 +9841,8 @@
       <c r="A198" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B198" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B198" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1113</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -9859,8 +9862,8 @@
       <c r="A199" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B199" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B199" s="1" t="str">
+        <f t="shared" si="17"/>
         <v>ROS1114</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -9880,8 +9883,8 @@
       <c r="A200" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B200" s="4" t="str">
-        <f>CONCATENATE("PRS", C200)</f>
+      <c r="B200" s="1" t="str">
+        <f t="shared" ref="B200:B213" si="18">CONCATENATE("PRS", C200)</f>
         <v>PRS1201</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -9901,8 +9904,8 @@
       <c r="A201" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B201" s="4" t="str">
-        <f t="shared" ref="B201:B213" si="30">CONCATENATE("PRS", C201)</f>
+      <c r="B201" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1202</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -9922,8 +9925,8 @@
       <c r="A202" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B202" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B202" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1203</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -9943,8 +9946,8 @@
       <c r="A203" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B203" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1204</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -9964,8 +9967,8 @@
       <c r="A204" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B204" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B204" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1205</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -9985,8 +9988,8 @@
       <c r="A205" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B205" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B205" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1206</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -10006,8 +10009,8 @@
       <c r="A206" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B206" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B206" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1207</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -10027,8 +10030,8 @@
       <c r="A207" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B207" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1208</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -10048,8 +10051,8 @@
       <c r="A208" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B208" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B208" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1209</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -10069,8 +10072,8 @@
       <c r="A209" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B209" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1210</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -10090,8 +10093,8 @@
       <c r="A210" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B210" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B210" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1211</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -10111,8 +10114,8 @@
       <c r="A211" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B211" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B211" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1212</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -10132,8 +10135,8 @@
       <c r="A212" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B212" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B212" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1213</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -10153,8 +10156,8 @@
       <c r="A213" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B213" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B213" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>PRS1214</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -10171,8 +10174,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
-    <sortCondition ref="F2:F25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F213">
+    <sortCondition ref="A2:A213"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10182,7 +10185,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830906F9-7B95-44BD-BED9-EFDC0D5DB4B9}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10190,10 +10193,11 @@
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -10204,10 +10208,13 @@
         <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10220,8 +10227,11 @@
       <c r="D2" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10234,8 +10244,11 @@
       <c r="D3" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10245,11 +10258,14 @@
       <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10259,11 +10275,14 @@
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10273,11 +10292,14 @@
       <c r="C6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10287,11 +10309,14 @@
       <c r="C7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10301,11 +10326,14 @@
       <c r="C8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10315,11 +10343,14 @@
       <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10329,11 +10360,14 @@
       <c r="C10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10343,11 +10377,14 @@
       <c r="C11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10357,11 +10394,14 @@
       <c r="C12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10371,11 +10411,14 @@
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10385,7 +10428,10 @@
       <c r="C14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -17178,7 +17224,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5336B-F437-4987-8344-87756C58031E}">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -17188,11 +17234,12 @@
     <col min="2" max="2" width="69.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>487</v>
       </c>
@@ -17206,13 +17253,16 @@
         <v>490</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -17222,15 +17272,20 @@
       <c r="C2" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -17240,15 +17295,20 @@
       <c r="C3" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -17258,15 +17318,20 @@
       <c r="C4" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -17276,15 +17341,20 @@
       <c r="C5" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -17294,15 +17364,20 @@
       <c r="C6" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -17312,15 +17387,20 @@
       <c r="C7" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -17330,15 +17410,20 @@
       <c r="C8" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -17348,15 +17433,20 @@
       <c r="C9" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -17366,15 +17456,20 @@
       <c r="C10" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -17384,15 +17479,20 @@
       <c r="C11" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -17402,15 +17502,20 @@
       <c r="C12" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -17420,15 +17525,20 @@
       <c r="C13" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -17438,15 +17548,20 @@
       <c r="C14" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -17456,15 +17571,20 @@
       <c r="C15" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -17474,15 +17594,20 @@
       <c r="C16" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -17492,15 +17617,20 @@
       <c r="C17" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -17510,15 +17640,20 @@
       <c r="C18" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -17528,15 +17663,20 @@
       <c r="C19" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -17546,15 +17686,20 @@
       <c r="C20" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -17564,15 +17709,20 @@
       <c r="C21" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -17582,15 +17732,20 @@
       <c r="C22" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -17600,15 +17755,20 @@
       <c r="C23" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -17618,15 +17778,20 @@
       <c r="C24" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -17636,15 +17801,20 @@
       <c r="C25" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -17654,15 +17824,20 @@
       <c r="C26" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -17672,15 +17847,20 @@
       <c r="C27" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -17690,15 +17870,20 @@
       <c r="C28" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -17708,15 +17893,20 @@
       <c r="C29" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -17726,15 +17916,20 @@
       <c r="C30" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -17744,15 +17939,20 @@
       <c r="C31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -17762,15 +17962,20 @@
       <c r="C32" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -17780,15 +17985,20 @@
       <c r="C33" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -17798,15 +18008,20 @@
       <c r="C34" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -17816,15 +18031,20 @@
       <c r="C35" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -17834,15 +18054,20 @@
       <c r="C36" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -17852,15 +18077,20 @@
       <c r="C37" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -17870,15 +18100,20 @@
       <c r="C38" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -17888,15 +18123,20 @@
       <c r="C39" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -17906,15 +18146,20 @@
       <c r="C40" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -17924,15 +18169,20 @@
       <c r="C41" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -17942,15 +18192,20 @@
       <c r="C42" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -17960,15 +18215,20 @@
       <c r="C43" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -17978,15 +18238,20 @@
       <c r="C44" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -17996,15 +18261,20 @@
       <c r="C45" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -18014,15 +18284,20 @@
       <c r="C46" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -18032,15 +18307,20 @@
       <c r="C47" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -18050,15 +18330,20 @@
       <c r="C48" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -18068,15 +18353,20 @@
       <c r="C49" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -18086,15 +18376,20 @@
       <c r="C50" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -18104,15 +18399,20 @@
       <c r="C51" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -18122,15 +18422,20 @@
       <c r="C52" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -18140,15 +18445,20 @@
       <c r="C53" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -18158,15 +18468,20 @@
       <c r="C54" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -18176,15 +18491,20 @@
       <c r="C55" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -18194,15 +18514,20 @@
       <c r="C56" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -18212,15 +18537,20 @@
       <c r="C57" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -18230,15 +18560,20 @@
       <c r="C58" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -18248,15 +18583,20 @@
       <c r="C59" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -18266,15 +18606,20 @@
       <c r="C60" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -18284,15 +18629,20 @@
       <c r="C61" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -18302,15 +18652,20 @@
       <c r="C62" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -18320,15 +18675,20 @@
       <c r="C63" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -18338,15 +18698,20 @@
       <c r="C64" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -18356,15 +18721,20 @@
       <c r="C65" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -18374,15 +18744,20 @@
       <c r="C66" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -18392,15 +18767,20 @@
       <c r="C67" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -18410,15 +18790,20 @@
       <c r="C68" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -18428,15 +18813,20 @@
       <c r="C69" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -18446,15 +18836,20 @@
       <c r="C70" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -18464,15 +18859,20 @@
       <c r="C71" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -18482,15 +18882,20 @@
       <c r="C72" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -18500,15 +18905,20 @@
       <c r="C73" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -18518,15 +18928,20 @@
       <c r="C74" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -18536,15 +18951,20 @@
       <c r="C75" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -18554,15 +18974,20 @@
       <c r="C76" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -18572,15 +18997,20 @@
       <c r="C77" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -18590,15 +19020,20 @@
       <c r="C78" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -18608,15 +19043,20 @@
       <c r="C79" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E79" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -18626,15 +19066,20 @@
       <c r="C80" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -18644,15 +19089,20 @@
       <c r="C81" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -18662,15 +19112,20 @@
       <c r="C82" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -18680,15 +19135,20 @@
       <c r="C83" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -18698,15 +19158,20 @@
       <c r="C84" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -18716,15 +19181,20 @@
       <c r="C85" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -18734,15 +19204,20 @@
       <c r="C86" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -18752,15 +19227,20 @@
       <c r="C87" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -18770,15 +19250,20 @@
       <c r="C88" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -18788,15 +19273,20 @@
       <c r="C89" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -18806,15 +19296,20 @@
       <c r="C90" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -18824,15 +19319,20 @@
       <c r="C91" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -18842,15 +19342,20 @@
       <c r="C92" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -18860,15 +19365,20 @@
       <c r="C93" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -18878,15 +19388,20 @@
       <c r="C94" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -18896,15 +19411,20 @@
       <c r="C95" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E95" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -18914,15 +19434,20 @@
       <c r="C96" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E96" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -18932,15 +19457,20 @@
       <c r="C97" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -18950,15 +19480,20 @@
       <c r="C98" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -18968,15 +19503,20 @@
       <c r="C99" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -18986,15 +19526,20 @@
       <c r="C100" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -19004,15 +19549,20 @@
       <c r="C101" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -19022,15 +19572,20 @@
       <c r="C102" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -19040,15 +19595,20 @@
       <c r="C103" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -19058,15 +19618,20 @@
       <c r="C104" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -19076,15 +19641,20 @@
       <c r="C105" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E105" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -19094,15 +19664,20 @@
       <c r="C106" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -19112,15 +19687,20 @@
       <c r="C107" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -19130,15 +19710,20 @@
       <c r="C108" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E108" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -19148,15 +19733,20 @@
       <c r="C109" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E109" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -19166,15 +19756,20 @@
       <c r="C110" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -19184,15 +19779,20 @@
       <c r="C111" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -19202,15 +19802,20 @@
       <c r="C112" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E112" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -19220,15 +19825,20 @@
       <c r="C113" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E113" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -19238,15 +19848,20 @@
       <c r="C114" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E114" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -19256,15 +19871,20 @@
       <c r="C115" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -19274,15 +19894,20 @@
       <c r="C116" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -19292,15 +19917,20 @@
       <c r="C117" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -19310,15 +19940,20 @@
       <c r="C118" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -19328,15 +19963,20 @@
       <c r="C119" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -19346,15 +19986,20 @@
       <c r="C120" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E120" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -19364,15 +20009,20 @@
       <c r="C121" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E121" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -19382,15 +20032,20 @@
       <c r="C122" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E122" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -19400,15 +20055,20 @@
       <c r="C123" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E123" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -19418,15 +20078,20 @@
       <c r="C124" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E124" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -19436,15 +20101,20 @@
       <c r="C125" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E125" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -19454,15 +20124,20 @@
       <c r="C126" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E126" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -19472,15 +20147,20 @@
       <c r="C127" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E127" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -19490,15 +20170,20 @@
       <c r="C128" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E128" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -19508,15 +20193,20 @@
       <c r="C129" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E129" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -19526,15 +20216,20 @@
       <c r="C130" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E130" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -19544,15 +20239,20 @@
       <c r="C131" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E131" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -19562,15 +20262,20 @@
       <c r="C132" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E132" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -19580,15 +20285,20 @@
       <c r="C133" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E133" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -19598,15 +20308,20 @@
       <c r="C134" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E134" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -19616,15 +20331,20 @@
       <c r="C135" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E135" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -19634,15 +20354,20 @@
       <c r="C136" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E136" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F136" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -19652,15 +20377,20 @@
       <c r="C137" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E137" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -19670,15 +20400,20 @@
       <c r="C138" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -19688,15 +20423,20 @@
       <c r="C139" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E139" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -19706,15 +20446,20 @@
       <c r="C140" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E140" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -19724,15 +20469,20 @@
       <c r="C141" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E141" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -19742,15 +20492,20 @@
       <c r="C142" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E142" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -19760,15 +20515,20 @@
       <c r="C143" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E143" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -19778,15 +20538,20 @@
       <c r="C144" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E144" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -19796,15 +20561,20 @@
       <c r="C145" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E145" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -19814,15 +20584,20 @@
       <c r="C146" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E146" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -19832,15 +20607,20 @@
       <c r="C147" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E147" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -19850,15 +20630,20 @@
       <c r="C148" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E148" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -19868,15 +20653,20 @@
       <c r="C149" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E149" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -19886,15 +20676,20 @@
       <c r="C150" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E150" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -19904,15 +20699,20 @@
       <c r="C151" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E151" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -19922,15 +20722,20 @@
       <c r="C152" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E152" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -19940,15 +20745,20 @@
       <c r="C153" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E153" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -19958,15 +20768,20 @@
       <c r="C154" s="1">
         <v>318000</v>
       </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1">
+      <c r="D154" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F154" s="1">
         <v>1</v>
       </c>
-      <c r="F154" s="1">
+      <c r="G154" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -19976,15 +20791,20 @@
       <c r="C155" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E155" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -19994,15 +20814,20 @@
       <c r="C156" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E156" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -20012,15 +20837,20 @@
       <c r="C157" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E157" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -20030,15 +20860,20 @@
       <c r="C158" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E158" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -20048,15 +20883,20 @@
       <c r="C159" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E159" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -20066,15 +20906,20 @@
       <c r="C160" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D160" s="1"/>
+      <c r="D160" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E160" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -20084,15 +20929,20 @@
       <c r="C161" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E161" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -20102,15 +20952,20 @@
       <c r="C162" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E162" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -20120,15 +20975,20 @@
       <c r="C163" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E163" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -20138,15 +20998,20 @@
       <c r="C164" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E164" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -20156,15 +21021,20 @@
       <c r="C165" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E165" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -20174,15 +21044,20 @@
       <c r="C166" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E166" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -20192,15 +21067,20 @@
       <c r="C167" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E167" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -20210,15 +21090,20 @@
       <c r="C168" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E168" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -20228,15 +21113,20 @@
       <c r="C169" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E169" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -20246,15 +21136,20 @@
       <c r="C170" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E170" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F170" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -20264,15 +21159,20 @@
       <c r="C171" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="E171" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F171" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -20282,15 +21182,20 @@
       <c r="C172" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E172" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -20300,15 +21205,20 @@
       <c r="C173" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E173" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -20318,15 +21228,20 @@
       <c r="C174" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E174" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F174" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -20336,15 +21251,20 @@
       <c r="C175" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E175" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -20354,15 +21274,20 @@
       <c r="C176" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E176" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -20372,15 +21297,20 @@
       <c r="C177" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E177" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F177" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -20390,15 +21320,20 @@
       <c r="C178" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E178" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -20408,15 +21343,20 @@
       <c r="C179" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E179" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -20426,15 +21366,20 @@
       <c r="C180" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E180" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F180" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -20444,15 +21389,20 @@
       <c r="C181" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="E181" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -20462,15 +21412,20 @@
       <c r="C182" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E182" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -20480,15 +21435,20 @@
       <c r="C183" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E183" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -20498,15 +21458,20 @@
       <c r="C184" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E184" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F184" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -20516,15 +21481,20 @@
       <c r="C185" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E185" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F185" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -20534,15 +21504,20 @@
       <c r="C186" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E186" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F186" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -20552,15 +21527,20 @@
       <c r="C187" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E187" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F187" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -20570,15 +21550,20 @@
       <c r="C188" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E188" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F188" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -20588,15 +21573,20 @@
       <c r="C189" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E189" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F189" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -20606,15 +21596,20 @@
       <c r="C190" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E190" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F190" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -20624,15 +21619,20 @@
       <c r="C191" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E191" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F191" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -20642,15 +21642,20 @@
       <c r="C192" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E192" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F192" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -20660,15 +21665,20 @@
       <c r="C193" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E193" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F193" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -20678,15 +21688,20 @@
       <c r="C194" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E194" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -20696,15 +21711,20 @@
       <c r="C195" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E195" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F195" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -20714,15 +21734,20 @@
       <c r="C196" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E196" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F196" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -20732,15 +21757,20 @@
       <c r="C197" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E197" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -20750,15 +21780,20 @@
       <c r="C198" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E198" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F198" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -20768,15 +21803,20 @@
       <c r="C199" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E199" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -20786,15 +21826,20 @@
       <c r="C200" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E200" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -20804,15 +21849,20 @@
       <c r="C201" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E201" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -20822,15 +21872,20 @@
       <c r="C202" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E202" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -20840,15 +21895,20 @@
       <c r="C203" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E203" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -20858,15 +21918,20 @@
       <c r="C204" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D204" s="1"/>
+      <c r="D204" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E204" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F204" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -20876,15 +21941,20 @@
       <c r="C205" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E205" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F205" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -20894,15 +21964,20 @@
       <c r="C206" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E206" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F206" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G206" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -20912,15 +21987,20 @@
       <c r="C207" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E207" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F207" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -20930,15 +22010,20 @@
       <c r="C208" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E208" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F208" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -20948,15 +22033,20 @@
       <c r="C209" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E209" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F209" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -20966,15 +22056,20 @@
       <c r="C210" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E210" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F210" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -20984,15 +22079,20 @@
       <c r="C211" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E211" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F211" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -21002,15 +22102,20 @@
       <c r="C212" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E212" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F212" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -21020,15 +22125,23 @@
       <c r="C213" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E213" s="1" t="s">
-        <v>71</v>
+        <v>1053</v>
       </c>
       <c r="F213" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G213">
+    <sortCondition ref="A2:A213"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B5CFA2-EBF4-440D-AB52-0182015DE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6D42A-5F4D-4BE0-979E-CE53FCA5FC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="1095">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -3324,6 +3324,12 @@
   </si>
   <si>
     <t>total_penyewaan</t>
+  </si>
+  <si>
+    <t>maks_penghuni_kamar</t>
+  </si>
+  <si>
+    <t>jumlah_penghuni_kamar</t>
   </si>
 </sst>
 </file>
@@ -4971,7 +4977,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F61A0-C462-45BA-9C2A-DB0E9A417211}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4981,18 +4987,19 @@
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>892</v>
       </c>
@@ -5006,34 +5013,37 @@
         <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5048,35 +5058,38 @@
         <v>898</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="K2" s="1">
-        <f>E2*2</f>
+      <c r="L2" s="1">
+        <f>F2*2</f>
         <v>3600000</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5091,35 +5104,38 @@
         <v>899</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K12" si="0">E3*2</f>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L12" si="0">F3*2</f>
         <v>2600000</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5134,35 +5150,38 @@
         <v>908</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5177,35 +5196,38 @@
         <v>900</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>2900000</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5220,35 +5242,38 @@
         <v>910</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="K6" s="1">
-        <f>E6*2+479000</f>
+      <c r="L6" s="1">
+        <f>F6*2+479000</f>
         <v>2739000</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5263,35 +5288,38 @@
         <v>1055</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>2300000</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5306,35 +5334,38 @@
         <v>1056</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="K8" s="1">
-        <f>E8*2+1148000</f>
+      <c r="L8" s="1">
+        <f>F8*2+1148000</f>
         <v>3748000</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5349,35 +5380,38 @@
         <v>901</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>1900000</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5392,35 +5426,38 @@
         <v>902</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="K10" s="1">
-        <f>E10*2+948000+70000</f>
+      <c r="L10" s="1">
+        <f>F10*2+948000+70000</f>
         <v>3318000</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5435,35 +5472,38 @@
         <v>903</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>1650000</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5478,35 +5518,38 @@
         <v>904</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>1610000</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5521,19 +5564,19 @@
         <v>909</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>963</v>
@@ -5542,13 +5585,16 @@
         <v>963</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5563,35 +5609,38 @@
         <v>907</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="K14" s="1">
-        <f>E14*2+338000+248000</f>
+      <c r="L14" s="1">
+        <f>F14*2+338000+248000</f>
         <v>9686000</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5606,35 +5655,38 @@
         <v>906</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="K15" s="1">
-        <f>E15*2+50000</f>
+      <c r="L15" s="1">
+        <f>F15*2+50000</f>
         <v>9150000</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5649,31 +5701,34 @@
         <v>905</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="K16" s="1">
-        <f>E16*2+406000+40000+278000</f>
+      <c r="L16" s="1">
+        <f>F16*2+406000+40000+278000</f>
         <v>9824000</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10185,7 +10240,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830906F9-7B95-44BD-BED9-EFDC0D5DB4B9}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10193,11 +10248,12 @@
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -10208,13 +10264,16 @@
         <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10225,13 +10284,16 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1053</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10242,13 +10304,16 @@
         <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1053</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10259,13 +10324,16 @@
         <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10276,13 +10344,16 @@
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E5" s="1">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10293,13 +10364,16 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E6" s="1">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10310,13 +10384,16 @@
         <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E7" s="1">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10327,13 +10404,16 @@
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E8" s="1">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10344,13 +10424,16 @@
         <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E9" s="1">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10361,13 +10444,16 @@
         <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E10" s="1">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10378,13 +10464,16 @@
         <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E11" s="1">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10395,13 +10484,16 @@
         <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E12" s="1">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10412,13 +10504,16 @@
         <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E13" s="1">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10429,9 +10524,12 @@
         <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E14" s="1">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
       </c>
     </row>

--- a/database/Data_Dummy.xlsx
+++ b/database/Data_Dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frans Nathanael\Desktop\To Be Continued\Semester 4\PCS\Proyek\program\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C68281-2402-46F7-A99B-79A64D73F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C170A-799C-4A86-95C5-34BE04A7C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="14" xr2:uid="{103EB8D4-6D39-4DA4-B210-D1A405D40687}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="1087">
   <si>
     <t>kode_karyawan</t>
   </si>
@@ -3305,6 +3305,9 @@
   </si>
   <si>
     <t>0152746701</t>
+  </si>
+  <si>
+    <t>status_detail</t>
   </si>
 </sst>
 </file>
@@ -19313,7 +19316,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13BA858-EADA-458C-8DC8-68F3D9373713}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19325,9 +19328,10 @@
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1068</v>
       </c>
@@ -19346,8 +19350,11 @@
       <c r="F1" s="3" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -19366,8 +19373,11 @@
       <c r="F2" s="1" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -19386,8 +19396,11 @@
       <c r="F3" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -19406,8 +19419,11 @@
       <c r="F4" s="1">
         <v>338000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -19426,8 +19442,11 @@
       <c r="F5" s="1">
         <v>248000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -19446,8 +19465,11 @@
       <c r="F6" s="1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -19466,8 +19488,11 @@
       <c r="F7" s="1">
         <v>40000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -19485,6 +19510,9 @@
       </c>
       <c r="F8" s="1">
         <v>278000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
